--- a/data/regs/so2_regulations_by_state_1976_to_2019.xlsx
+++ b/data/regs/so2_regulations_by_state_1976_to_2019.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcp322\Box\Personal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/palsb1/Library/CloudStorage/Box-Box/researchB/online_version_JAERE/data/Bridget/use_data/regulations/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D851856-78CD-C846-9FCB-662AB0D831BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="8055"/>
+    <workbookView xWindow="440" yWindow="500" windowWidth="25800" windowHeight="12520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regulations by State" sheetId="6" r:id="rId1"/>
     <sheet name="Data Dictionary" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4249" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4476" uniqueCount="636">
   <si>
     <t>Alabama</t>
   </si>
@@ -1929,12 +1930,27 @@
   </si>
   <si>
     <t>Dates for Pennsylvania regulations were taken from EPA's write-up of PA's SIP, available on its website in 2020. Copy of PDF included in zip folder.</t>
+  </si>
+  <si>
+    <t>Time Period</t>
+  </si>
+  <si>
+    <t>This variable codes certain changes in time period to make it easier to link up changes in geographical designations when different regulations are in effect.</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2316,7 +2332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2532,16 +2548,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2567,6 +2577,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2880,48 +2899,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM571"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AN571"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M273" sqref="M273"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="29" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="3" customWidth="1"/>
     <col min="11" max="11" width="10" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.85546875" style="2" customWidth="1"/>
-    <col min="16" max="18" width="7.140625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="5.28515625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="34.7109375" style="2" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.83203125" style="2" customWidth="1"/>
+    <col min="16" max="18" width="7.1640625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="15.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1640625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="9.1640625" style="3" customWidth="1"/>
+    <col min="22" max="22" width="5.33203125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="8.33203125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="34.6640625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.1640625" style="3" customWidth="1"/>
     <col min="26" max="26" width="11" style="3" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" style="3" customWidth="1"/>
-    <col min="28" max="28" width="87.5703125" customWidth="1"/>
-    <col min="29" max="29" width="233.140625" customWidth="1"/>
+    <col min="27" max="27" width="9.1640625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="8.1640625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="87.5" customWidth="1"/>
+    <col min="30" max="30" width="233.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Y1" s="3" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="9" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" s="9" customFormat="1" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="25"/>
       <c r="C2" s="10" t="s">
@@ -2999,18 +3021,21 @@
       <c r="AA2" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="AB2" s="77" t="s">
+      <c r="AB2" s="94" t="s">
+        <v>631</v>
+      </c>
+      <c r="AC2" s="77" t="s">
         <v>518</v>
       </c>
-      <c r="AC2" s="18" t="s">
+      <c r="AD2" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="85" t="s">
         <v>194</v>
       </c>
       <c r="D3" s="26" t="s">
@@ -3061,14 +3086,17 @@
       <c r="AA3" s="32">
         <v>1976</v>
       </c>
-      <c r="AB3" s="78" t="s">
+      <c r="AB3" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC3" s="78" t="s">
         <v>575</v>
       </c>
-      <c r="AC3" s="33" t="s">
+      <c r="AD3" s="33" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B4" s="70" t="s">
         <v>0</v>
       </c>
@@ -3121,14 +3149,17 @@
       <c r="AA4" s="40">
         <v>1976</v>
       </c>
-      <c r="AB4" s="46" t="s">
+      <c r="AB4" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC4" s="46" t="s">
         <v>575</v>
       </c>
-      <c r="AC4" s="41" t="s">
+      <c r="AD4" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B5" s="70" t="s">
         <v>0</v>
       </c>
@@ -3179,14 +3210,17 @@
         <v>1976</v>
       </c>
       <c r="AA5" s="40"/>
-      <c r="AB5" s="46" t="s">
+      <c r="AB5" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC5" s="46" t="s">
         <v>574</v>
       </c>
-      <c r="AC5" s="41" t="s">
+      <c r="AD5" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>191</v>
       </c>
@@ -3242,14 +3276,17 @@
         <v>1979</v>
       </c>
       <c r="AA6" s="40"/>
-      <c r="AB6" s="46" t="s">
+      <c r="AB6" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC6" s="46" t="s">
         <v>559</v>
       </c>
-      <c r="AC6" s="41" t="s">
+      <c r="AD6" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B7" s="70" t="s">
         <v>0</v>
       </c>
@@ -3300,14 +3337,17 @@
         <v>1990</v>
       </c>
       <c r="AA7" s="40"/>
-      <c r="AB7" s="46" t="s">
+      <c r="AB7" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC7" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="AC7" s="41" t="s">
+      <c r="AD7" s="41" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B8" s="70" t="s">
         <v>0</v>
       </c>
@@ -3358,12 +3398,15 @@
         <v>1976</v>
       </c>
       <c r="AA8" s="40"/>
-      <c r="AB8" s="46" t="s">
+      <c r="AB8" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC8" s="46" t="s">
         <v>573</v>
       </c>
-      <c r="AC8" s="41"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AD8" s="41"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B9" s="70" t="s">
         <v>0</v>
       </c>
@@ -3408,12 +3451,13 @@
       </c>
       <c r="Z9" s="35"/>
       <c r="AA9" s="40"/>
-      <c r="AB9" s="46" t="s">
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="46" t="s">
         <v>573</v>
       </c>
-      <c r="AC9" s="41"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AD9" s="41"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>188</v>
       </c>
@@ -3475,14 +3519,15 @@
         <v>1972</v>
       </c>
       <c r="AA10" s="40"/>
-      <c r="AB10" s="41" t="s">
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="41" t="s">
         <v>464</v>
       </c>
-      <c r="AC10" s="41"/>
-      <c r="AL10" s="43"/>
+      <c r="AD10" s="41"/>
       <c r="AM10" s="43"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN10" s="43"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B11" s="70" t="s">
         <v>2</v>
       </c>
@@ -3539,16 +3584,17 @@
       <c r="AA11" s="40">
         <v>1990</v>
       </c>
-      <c r="AB11" s="46" t="s">
+      <c r="AB11" s="39"/>
+      <c r="AC11" s="46" t="s">
         <v>572</v>
       </c>
-      <c r="AC11" s="41" t="s">
+      <c r="AD11" s="41" t="s">
         <v>564</v>
       </c>
-      <c r="AL11" s="43"/>
       <c r="AM11" s="43"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN11" s="43"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B12" s="70" t="s">
         <v>2</v>
       </c>
@@ -3597,16 +3643,17 @@
       <c r="AA12" s="40">
         <v>1990</v>
       </c>
-      <c r="AB12" s="46" t="s">
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="46" t="s">
         <v>572</v>
       </c>
-      <c r="AC12" s="41" t="s">
+      <c r="AD12" s="41" t="s">
         <v>465</v>
       </c>
-      <c r="AL12" s="43"/>
       <c r="AM12" s="43"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN12" s="43"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B13" s="70" t="s">
         <v>2</v>
       </c>
@@ -3663,16 +3710,17 @@
       <c r="AA13" s="40">
         <v>1990</v>
       </c>
-      <c r="AB13" s="46" t="s">
+      <c r="AB13" s="39"/>
+      <c r="AC13" s="46" t="s">
         <v>572</v>
       </c>
-      <c r="AC13" s="41" t="s">
+      <c r="AD13" s="41" t="s">
         <v>465</v>
       </c>
-      <c r="AL13" s="43"/>
       <c r="AM13" s="43"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN13" s="43"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B14" s="70" t="s">
         <v>2</v>
       </c>
@@ -3727,16 +3775,17 @@
         <v>1991</v>
       </c>
       <c r="AA14" s="40"/>
-      <c r="AB14" s="46" t="s">
+      <c r="AB14" s="39"/>
+      <c r="AC14" s="46" t="s">
         <v>563</v>
       </c>
-      <c r="AC14" s="41" t="s">
+      <c r="AD14" s="41" t="s">
         <v>565</v>
       </c>
-      <c r="AL14" s="43"/>
       <c r="AM14" s="43"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN14" s="43"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B15" s="70" t="s">
         <v>2</v>
       </c>
@@ -3791,16 +3840,17 @@
         <v>1991</v>
       </c>
       <c r="AA15" s="40"/>
-      <c r="AB15" s="46" t="s">
+      <c r="AB15" s="39"/>
+      <c r="AC15" s="46" t="s">
         <v>563</v>
       </c>
-      <c r="AC15" s="41" t="s">
+      <c r="AD15" s="41" t="s">
         <v>465</v>
       </c>
-      <c r="AL15" s="43"/>
       <c r="AM15" s="43"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN15" s="43"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B16" s="70" t="s">
         <v>3</v>
       </c>
@@ -3857,16 +3907,17 @@
         <v>1976</v>
       </c>
       <c r="AA16" s="40"/>
-      <c r="AB16" s="46" t="s">
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="46" t="s">
         <v>571</v>
       </c>
-      <c r="AC16" s="41" t="s">
+      <c r="AD16" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="AL16" s="43"/>
       <c r="AM16" s="43"/>
-    </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN16" s="43"/>
+    </row>
+    <row r="17" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B17" s="70" t="s">
         <v>3</v>
       </c>
@@ -3917,16 +3968,17 @@
         <v>2013</v>
       </c>
       <c r="AA17" s="40"/>
-      <c r="AB17" s="46" t="s">
+      <c r="AB17" s="39"/>
+      <c r="AC17" s="46" t="s">
         <v>566</v>
       </c>
-      <c r="AC17" s="41" t="s">
+      <c r="AD17" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="AL17" s="43"/>
       <c r="AM17" s="43"/>
-    </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN17" s="43"/>
+    </row>
+    <row r="18" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B18" s="70" t="s">
         <v>3</v>
       </c>
@@ -3977,16 +4029,17 @@
         <v>2013</v>
       </c>
       <c r="AA18" s="40"/>
-      <c r="AB18" s="46" t="s">
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="46" t="s">
         <v>566</v>
       </c>
-      <c r="AC18" s="41" t="s">
+      <c r="AD18" s="41" t="s">
         <v>465</v>
       </c>
-      <c r="AL18" s="43"/>
       <c r="AM18" s="43"/>
-    </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN18" s="43"/>
+    </row>
+    <row r="19" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B19" s="70" t="s">
         <v>3</v>
       </c>
@@ -4037,16 +4090,17 @@
         <v>2013</v>
       </c>
       <c r="AA19" s="40"/>
-      <c r="AB19" s="46" t="s">
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="46" t="s">
         <v>566</v>
       </c>
-      <c r="AC19" s="41" t="s">
+      <c r="AD19" s="41" t="s">
         <v>465</v>
       </c>
-      <c r="AL19" s="43"/>
       <c r="AM19" s="43"/>
-    </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN19" s="43"/>
+    </row>
+    <row r="20" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B20" s="70" t="s">
         <v>3</v>
       </c>
@@ -4097,16 +4151,17 @@
         <v>2013</v>
       </c>
       <c r="AA20" s="40"/>
-      <c r="AB20" s="46" t="s">
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="46" t="s">
         <v>566</v>
       </c>
-      <c r="AC20" s="41" t="s">
+      <c r="AD20" s="41" t="s">
         <v>465</v>
       </c>
-      <c r="AL20" s="43"/>
       <c r="AM20" s="43"/>
-    </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN20" s="43"/>
+    </row>
+    <row r="21" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B21" s="70" t="s">
         <v>4</v>
       </c>
@@ -4165,14 +4220,15 @@
       <c r="AA21" s="45">
         <v>1981</v>
       </c>
-      <c r="AB21" s="41" t="s">
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="AC21" s="41"/>
-      <c r="AL21" s="43"/>
+      <c r="AD21" s="41"/>
       <c r="AM21" s="43"/>
-    </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN21" s="43"/>
+    </row>
+    <row r="22" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B22" s="70" t="s">
         <v>4</v>
       </c>
@@ -4231,14 +4287,15 @@
       <c r="AA22" s="45">
         <v>1981</v>
       </c>
-      <c r="AB22" s="41" t="s">
+      <c r="AB22" s="95"/>
+      <c r="AC22" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="AC22" s="41"/>
-      <c r="AL22" s="43"/>
+      <c r="AD22" s="41"/>
       <c r="AM22" s="43"/>
-    </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN22" s="43"/>
+    </row>
+    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B23" s="70" t="s">
         <v>4</v>
       </c>
@@ -4297,14 +4354,15 @@
         <v>1982</v>
       </c>
       <c r="AA23" s="45"/>
-      <c r="AB23" s="46" t="s">
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="46" t="s">
         <v>567</v>
       </c>
-      <c r="AC23" s="46" t="s">
+      <c r="AD23" s="46" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B24" s="70" t="s">
         <v>4</v>
       </c>
@@ -4363,14 +4421,15 @@
         <v>1982</v>
       </c>
       <c r="AA24" s="45"/>
-      <c r="AB24" s="46" t="s">
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="46" t="s">
         <v>567</v>
       </c>
-      <c r="AC24" s="46" t="s">
+      <c r="AD24" s="46" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B25" s="70" t="s">
         <v>4</v>
       </c>
@@ -4429,14 +4488,15 @@
         <v>1982</v>
       </c>
       <c r="AA25" s="45"/>
-      <c r="AB25" s="46" t="s">
+      <c r="AB25" s="95"/>
+      <c r="AC25" s="46" t="s">
         <v>567</v>
       </c>
-      <c r="AC25" s="46" t="s">
+      <c r="AD25" s="46" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B26" s="70" t="s">
         <v>4</v>
       </c>
@@ -4495,14 +4555,15 @@
         <v>1982</v>
       </c>
       <c r="AA26" s="45"/>
-      <c r="AB26" s="46" t="s">
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="46" t="s">
         <v>567</v>
       </c>
-      <c r="AC26" s="46" t="s">
+      <c r="AD26" s="46" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B27" s="70" t="s">
         <v>4</v>
       </c>
@@ -4551,14 +4612,15 @@
         <v>1994</v>
       </c>
       <c r="AA27" s="45"/>
-      <c r="AB27" s="46" t="s">
+      <c r="AB27" s="95"/>
+      <c r="AC27" s="46" t="s">
         <v>568</v>
       </c>
-      <c r="AC27" s="46" t="s">
+      <c r="AD27" s="46" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B28" s="70" t="s">
         <v>4</v>
       </c>
@@ -4611,14 +4673,15 @@
         <v>2002</v>
       </c>
       <c r="AA28" s="45"/>
-      <c r="AB28" s="46" t="s">
+      <c r="AB28" s="95"/>
+      <c r="AC28" s="46" t="s">
         <v>568</v>
       </c>
-      <c r="AC28" s="46" t="s">
+      <c r="AD28" s="46" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B29" s="70" t="s">
         <v>4</v>
       </c>
@@ -4671,14 +4734,15 @@
         <v>2002</v>
       </c>
       <c r="AA29" s="45"/>
-      <c r="AB29" s="46" t="s">
+      <c r="AB29" s="95"/>
+      <c r="AC29" s="46" t="s">
         <v>568</v>
       </c>
-      <c r="AC29" s="46" t="s">
+      <c r="AD29" s="46" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B30" s="70" t="s">
         <v>4</v>
       </c>
@@ -4727,14 +4791,15 @@
         <v>1995</v>
       </c>
       <c r="AA30" s="45"/>
-      <c r="AB30" s="46" t="s">
+      <c r="AB30" s="95"/>
+      <c r="AC30" s="46" t="s">
         <v>568</v>
       </c>
-      <c r="AC30" s="46" t="s">
+      <c r="AD30" s="46" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B31" s="70" t="s">
         <v>4</v>
       </c>
@@ -4787,14 +4852,15 @@
         <v>2002</v>
       </c>
       <c r="AA31" s="45"/>
-      <c r="AB31" s="46" t="s">
+      <c r="AB31" s="95"/>
+      <c r="AC31" s="46" t="s">
         <v>568</v>
       </c>
-      <c r="AC31" s="46" t="s">
+      <c r="AD31" s="46" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B32" s="70" t="s">
         <v>4</v>
       </c>
@@ -4843,12 +4909,13 @@
         <v>1994</v>
       </c>
       <c r="AA32" s="45"/>
-      <c r="AB32" s="46" t="s">
+      <c r="AB32" s="95"/>
+      <c r="AC32" s="46" t="s">
         <v>568</v>
       </c>
-      <c r="AC32" s="46"/>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD32" s="46"/>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B33" s="70" t="s">
         <v>8</v>
       </c>
@@ -4911,12 +4978,13 @@
       <c r="AA33" s="45">
         <v>2002</v>
       </c>
-      <c r="AB33" s="46" t="s">
+      <c r="AB33" s="95"/>
+      <c r="AC33" s="46" t="s">
         <v>461</v>
       </c>
-      <c r="AC33" s="46"/>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD33" s="46"/>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B34" s="70" t="s">
         <v>8</v>
       </c>
@@ -4975,12 +5043,13 @@
         <v>2003</v>
       </c>
       <c r="AA34" s="45"/>
-      <c r="AB34" s="46" t="s">
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="AC34" s="46"/>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD34" s="46"/>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B35" s="70" t="s">
         <v>9</v>
       </c>
@@ -5035,14 +5104,15 @@
         <v>2016</v>
       </c>
       <c r="AA35" s="45"/>
-      <c r="AB35" s="79" t="s">
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="AC35" s="41" t="s">
+      <c r="AD35" s="41" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B36" s="70" t="s">
         <v>9</v>
       </c>
@@ -5097,12 +5167,13 @@
         <v>1976</v>
       </c>
       <c r="AA36" s="45"/>
-      <c r="AB36" s="46" t="s">
+      <c r="AB36" s="95"/>
+      <c r="AC36" s="46" t="s">
         <v>460</v>
       </c>
-      <c r="AC36" s="41"/>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD36" s="41"/>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="70" t="s">
         <v>203</v>
       </c>
@@ -5159,12 +5230,13 @@
         <v>1969</v>
       </c>
       <c r="AA37" s="45"/>
-      <c r="AB37" s="76" t="s">
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="76" t="s">
         <v>204</v>
       </c>
-      <c r="AC37" s="41"/>
-    </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD37" s="41"/>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B38" s="70" t="s">
         <v>12</v>
       </c>
@@ -5221,12 +5293,13 @@
         <v>1976</v>
       </c>
       <c r="AA38" s="45"/>
-      <c r="AB38" s="46" t="s">
+      <c r="AB38" s="95"/>
+      <c r="AC38" s="46" t="s">
         <v>576</v>
       </c>
-      <c r="AC38" s="41"/>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD38" s="41"/>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B39" s="70" t="s">
         <v>12</v>
       </c>
@@ -5285,12 +5358,13 @@
       <c r="AA39" s="45">
         <v>1977</v>
       </c>
-      <c r="AB39" s="46" t="s">
+      <c r="AB39" s="95"/>
+      <c r="AC39" s="46" t="s">
         <v>576</v>
       </c>
-      <c r="AC39" s="41"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD39" s="41"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B40" s="70" t="s">
         <v>12</v>
       </c>
@@ -5349,12 +5423,13 @@
       <c r="AA40" s="45">
         <v>1977</v>
       </c>
-      <c r="AB40" s="46" t="s">
+      <c r="AB40" s="95"/>
+      <c r="AC40" s="46" t="s">
         <v>576</v>
       </c>
-      <c r="AC40" s="41"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD40" s="41"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B41" s="70" t="s">
         <v>12</v>
       </c>
@@ -5411,12 +5486,13 @@
       <c r="AA41" s="48" t="s">
         <v>462</v>
       </c>
-      <c r="AB41" s="41" t="s">
+      <c r="AB41" s="95"/>
+      <c r="AC41" s="41" t="s">
         <v>623</v>
       </c>
-      <c r="AC41" s="41"/>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD41" s="41"/>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B42" s="70" t="s">
         <v>12</v>
       </c>
@@ -5471,12 +5547,13 @@
       <c r="AA42" s="48" t="s">
         <v>462</v>
       </c>
-      <c r="AB42" s="41" t="s">
+      <c r="AB42" s="95"/>
+      <c r="AC42" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC42" s="41"/>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD42" s="41"/>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B43" s="70" t="s">
         <v>12</v>
       </c>
@@ -5531,12 +5608,13 @@
       <c r="AA43" s="48" t="s">
         <v>462</v>
       </c>
-      <c r="AB43" s="41" t="s">
+      <c r="AB43" s="95"/>
+      <c r="AC43" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC43" s="41"/>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD43" s="41"/>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B44" s="70" t="s">
         <v>12</v>
       </c>
@@ -5591,14 +5669,15 @@
       <c r="AA44" s="48" t="s">
         <v>462</v>
       </c>
-      <c r="AB44" s="41" t="s">
+      <c r="AB44" s="95"/>
+      <c r="AC44" s="41" t="s">
         <v>578</v>
       </c>
-      <c r="AC44" s="41" t="s">
+      <c r="AD44" s="41" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B45" s="70" t="s">
         <v>12</v>
       </c>
@@ -5651,14 +5730,15 @@
         <v>1981</v>
       </c>
       <c r="AA45" s="45"/>
-      <c r="AB45" s="41" t="s">
+      <c r="AB45" s="95"/>
+      <c r="AC45" s="41" t="s">
         <v>389</v>
       </c>
-      <c r="AC45" s="41" t="s">
+      <c r="AD45" s="41" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B46" s="70" t="s">
         <v>12</v>
       </c>
@@ -5711,14 +5791,15 @@
         <v>1981</v>
       </c>
       <c r="AA46" s="45"/>
-      <c r="AB46" s="41" t="s">
+      <c r="AB46" s="95"/>
+      <c r="AC46" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="AC46" s="41" t="s">
+      <c r="AD46" s="41" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B47" s="70" t="s">
         <v>12</v>
       </c>
@@ -5773,14 +5854,15 @@
         <v>1981</v>
       </c>
       <c r="AA47" s="45"/>
-      <c r="AB47" s="41" t="s">
+      <c r="AB47" s="95"/>
+      <c r="AC47" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="AC47" s="41" t="s">
+      <c r="AD47" s="41" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B48" s="70" t="s">
         <v>13</v>
       </c>
@@ -5839,12 +5921,13 @@
         <v>1976</v>
       </c>
       <c r="AA48" s="45"/>
-      <c r="AB48" s="41" t="s">
+      <c r="AB48" s="95"/>
+      <c r="AC48" s="41" t="s">
         <v>624</v>
       </c>
-      <c r="AC48" s="41"/>
-    </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD48" s="41"/>
+    </row>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B49" s="70" t="s">
         <v>13</v>
       </c>
@@ -5903,12 +5986,13 @@
         <v>1976</v>
       </c>
       <c r="AA49" s="40"/>
-      <c r="AB49" s="41" t="s">
+      <c r="AB49" s="39"/>
+      <c r="AC49" s="41" t="s">
         <v>624</v>
       </c>
-      <c r="AC49" s="41"/>
-    </row>
-    <row r="50" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD49" s="41"/>
+    </row>
+    <row r="50" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B50" s="70" t="s">
         <v>13</v>
       </c>
@@ -5967,12 +6051,13 @@
         <v>1976</v>
       </c>
       <c r="AA50" s="40"/>
-      <c r="AB50" s="41" t="s">
+      <c r="AB50" s="39"/>
+      <c r="AC50" s="41" t="s">
         <v>624</v>
       </c>
-      <c r="AC50" s="41"/>
-    </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD50" s="41"/>
+    </row>
+    <row r="51" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B51" s="70" t="s">
         <v>13</v>
       </c>
@@ -6029,12 +6114,13 @@
         <v>1976</v>
       </c>
       <c r="AA51" s="40"/>
-      <c r="AB51" s="41" t="s">
+      <c r="AB51" s="39"/>
+      <c r="AC51" s="41" t="s">
         <v>624</v>
       </c>
-      <c r="AC51" s="41"/>
-    </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD51" s="41"/>
+    </row>
+    <row r="52" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B52" s="70" t="s">
         <v>16</v>
       </c>
@@ -6093,12 +6179,13 @@
         <v>1976</v>
       </c>
       <c r="AA52" s="40"/>
-      <c r="AB52" s="41" t="s">
+      <c r="AB52" s="39"/>
+      <c r="AC52" s="41" t="s">
         <v>625</v>
       </c>
-      <c r="AC52" s="41"/>
-    </row>
-    <row r="53" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD52" s="41"/>
+    </row>
+    <row r="53" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B53" s="70" t="s">
         <v>16</v>
       </c>
@@ -6157,12 +6244,13 @@
         <v>1976</v>
       </c>
       <c r="AA53" s="40"/>
-      <c r="AB53" s="41" t="s">
+      <c r="AB53" s="39"/>
+      <c r="AC53" s="41" t="s">
         <v>625</v>
       </c>
-      <c r="AC53" s="41"/>
-    </row>
-    <row r="54" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD53" s="41"/>
+    </row>
+    <row r="54" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B54" s="70" t="s">
         <v>20</v>
       </c>
@@ -6221,12 +6309,13 @@
         <v>1976</v>
       </c>
       <c r="AA54" s="40"/>
-      <c r="AB54" s="41" t="s">
+      <c r="AB54" s="39"/>
+      <c r="AC54" s="41" t="s">
         <v>626</v>
       </c>
-      <c r="AC54" s="41"/>
-    </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD54" s="41"/>
+    </row>
+    <row r="55" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B55" s="70" t="s">
         <v>22</v>
       </c>
@@ -6283,12 +6372,13 @@
         <v>1976</v>
       </c>
       <c r="AA55" s="45"/>
-      <c r="AB55" s="41" t="s">
+      <c r="AB55" s="96"/>
+      <c r="AC55" s="41" t="s">
         <v>627</v>
       </c>
-      <c r="AC55" s="41"/>
-    </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD55" s="41"/>
+    </row>
+    <row r="56" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B56" s="70" t="s">
         <v>22</v>
       </c>
@@ -6345,12 +6435,13 @@
         <v>1976</v>
       </c>
       <c r="AA56" s="45"/>
-      <c r="AB56" s="41" t="s">
+      <c r="AB56" s="96"/>
+      <c r="AC56" s="41" t="s">
         <v>628</v>
       </c>
-      <c r="AC56" s="41"/>
-    </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD56" s="41"/>
+    </row>
+    <row r="57" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B57" s="70" t="s">
         <v>22</v>
       </c>
@@ -6405,12 +6496,13 @@
         <v>1976</v>
       </c>
       <c r="AA57" s="45"/>
-      <c r="AB57" s="41" t="s">
+      <c r="AB57" s="96"/>
+      <c r="AC57" s="41" t="s">
         <v>628</v>
       </c>
-      <c r="AC57" s="41"/>
-    </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD57" s="41"/>
+    </row>
+    <row r="58" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B58" s="70" t="s">
         <v>22</v>
       </c>
@@ -6418,7 +6510,7 @@
         <v>215</v>
       </c>
       <c r="D58" s="34"/>
-      <c r="E58" s="85" t="s">
+      <c r="E58" s="2" t="s">
         <v>273</v>
       </c>
       <c r="F58" s="34"/>
@@ -6463,14 +6555,15 @@
         <v>1976</v>
       </c>
       <c r="AA58" s="45"/>
-      <c r="AB58" s="41" t="s">
+      <c r="AB58" s="96"/>
+      <c r="AC58" s="41" t="s">
         <v>628</v>
       </c>
-      <c r="AC58" s="41" t="s">
+      <c r="AD58" s="41" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B59" s="70" t="s">
         <v>22</v>
       </c>
@@ -6506,8 +6599,6 @@
       </c>
       <c r="O59" s="34"/>
       <c r="P59" s="35"/>
-      <c r="Q59" s="84"/>
-      <c r="R59" s="84"/>
       <c r="S59" s="38"/>
       <c r="T59" s="35">
         <v>1.8</v>
@@ -6527,14 +6618,15 @@
       <c r="AA59" s="45">
         <v>1983</v>
       </c>
-      <c r="AB59" s="41" t="s">
+      <c r="AB59" s="96"/>
+      <c r="AC59" s="41" t="s">
         <v>628</v>
       </c>
-      <c r="AC59" s="41" t="s">
+      <c r="AD59" s="41" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B60" s="70" t="s">
         <v>22</v>
       </c>
@@ -6589,12 +6681,13 @@
       <c r="AA60" s="45">
         <v>1980</v>
       </c>
-      <c r="AB60" s="41" t="s">
+      <c r="AB60" s="96"/>
+      <c r="AC60" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="AC60" s="41"/>
-    </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD60" s="41"/>
+    </row>
+    <row r="61" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B61" s="70" t="s">
         <v>22</v>
       </c>
@@ -6647,12 +6740,13 @@
         <v>1983</v>
       </c>
       <c r="AA61" s="45"/>
-      <c r="AB61" s="41" t="s">
+      <c r="AB61" s="96"/>
+      <c r="AC61" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="AC61" s="41"/>
-    </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD61" s="41"/>
+    </row>
+    <row r="62" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B62" s="70" t="s">
         <v>22</v>
       </c>
@@ -6660,7 +6754,7 @@
         <v>215</v>
       </c>
       <c r="D62" s="34"/>
-      <c r="E62" s="85" t="s">
+      <c r="E62" s="2" t="s">
         <v>273</v>
       </c>
       <c r="F62" s="34"/>
@@ -6707,14 +6801,15 @@
         <v>1986</v>
       </c>
       <c r="AA62" s="45"/>
-      <c r="AB62" s="41" t="s">
+      <c r="AB62" s="96"/>
+      <c r="AC62" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="AC62" s="41" t="s">
+      <c r="AD62" s="41" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B63" s="70" t="s">
         <v>22</v>
       </c>
@@ -6769,14 +6864,15 @@
         <v>1986</v>
       </c>
       <c r="AA63" s="45"/>
-      <c r="AB63" s="41" t="s">
+      <c r="AB63" s="96"/>
+      <c r="AC63" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="AC63" s="41" t="s">
+      <c r="AD63" s="41" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B64" s="70" t="s">
         <v>22</v>
       </c>
@@ -6831,14 +6927,15 @@
         <v>1986</v>
       </c>
       <c r="AA64" s="45"/>
-      <c r="AB64" s="41" t="s">
+      <c r="AB64" s="96"/>
+      <c r="AC64" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="AC64" s="41" t="s">
+      <c r="AD64" s="41" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B65" s="70" t="s">
         <v>22</v>
       </c>
@@ -6891,12 +6988,13 @@
         <v>1980</v>
       </c>
       <c r="AA65" s="45"/>
-      <c r="AB65" s="41" t="s">
+      <c r="AB65" s="96"/>
+      <c r="AC65" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="AC65" s="41"/>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD65" s="41"/>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B66" s="70" t="s">
         <v>22</v>
       </c>
@@ -6951,12 +7049,13 @@
         <v>1979</v>
       </c>
       <c r="AA66" s="45"/>
-      <c r="AB66" s="41" t="s">
+      <c r="AB66" s="96"/>
+      <c r="AC66" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="AC66" s="41"/>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD66" s="41"/>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B67" s="70" t="s">
         <v>22</v>
       </c>
@@ -7005,12 +7104,13 @@
         <v>1976</v>
       </c>
       <c r="AA67" s="45"/>
-      <c r="AB67" s="41" t="s">
+      <c r="AB67" s="96"/>
+      <c r="AC67" s="41" t="s">
         <v>629</v>
       </c>
-      <c r="AC67" s="41"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD67" s="41"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B68" s="70" t="s">
         <v>23</v>
       </c>
@@ -7067,12 +7167,13 @@
       <c r="AA68" s="45">
         <v>1976</v>
       </c>
-      <c r="AB68" s="41" t="s">
+      <c r="AB68" s="96"/>
+      <c r="AC68" s="41" t="s">
         <v>576</v>
       </c>
-      <c r="AC68" s="41"/>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD68" s="41"/>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B69" s="70" t="s">
         <v>23</v>
       </c>
@@ -7131,12 +7232,13 @@
       <c r="AA69" s="45">
         <v>1976</v>
       </c>
-      <c r="AB69" s="41" t="s">
+      <c r="AB69" s="96"/>
+      <c r="AC69" s="41" t="s">
         <v>576</v>
       </c>
-      <c r="AC69" s="41"/>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD69" s="41"/>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B70" s="70" t="s">
         <v>23</v>
       </c>
@@ -7193,12 +7295,13 @@
       <c r="AA70" s="45">
         <v>1976</v>
       </c>
-      <c r="AB70" s="41" t="s">
+      <c r="AB70" s="96"/>
+      <c r="AC70" s="41" t="s">
         <v>576</v>
       </c>
-      <c r="AC70" s="41"/>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD70" s="41"/>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B71" s="70" t="s">
         <v>23</v>
       </c>
@@ -7251,12 +7354,13 @@
       <c r="AA71" s="45">
         <v>1981</v>
       </c>
-      <c r="AB71" s="41" t="s">
+      <c r="AB71" s="96"/>
+      <c r="AC71" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="AC71" s="41"/>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD71" s="41"/>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B72" s="70" t="s">
         <v>23</v>
       </c>
@@ -7311,12 +7415,13 @@
       <c r="AA72" s="45">
         <v>1981</v>
       </c>
-      <c r="AB72" s="41" t="s">
+      <c r="AB72" s="96"/>
+      <c r="AC72" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="AC72" s="41"/>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD72" s="41"/>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B73" s="70" t="s">
         <v>23</v>
       </c>
@@ -7369,12 +7474,13 @@
       <c r="AA73" s="45">
         <v>1981</v>
       </c>
-      <c r="AB73" s="41" t="s">
+      <c r="AB73" s="96"/>
+      <c r="AC73" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="AC73" s="41"/>
-    </row>
-    <row r="74" spans="2:29" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD73" s="41"/>
+    </row>
+    <row r="74" spans="2:30" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B74" s="70" t="s">
         <v>23</v>
       </c>
@@ -7429,12 +7535,13 @@
         <v>1982</v>
       </c>
       <c r="AA74" s="40"/>
-      <c r="AB74" s="80" t="s">
+      <c r="AB74" s="39"/>
+      <c r="AC74" s="80" t="s">
         <v>467</v>
       </c>
-      <c r="AC74" s="50"/>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD74" s="50"/>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B75" s="70" t="s">
         <v>24</v>
       </c>
@@ -7485,12 +7592,13 @@
         <v>1977</v>
       </c>
       <c r="AA75" s="40"/>
-      <c r="AB75" s="41" t="s">
+      <c r="AB75" s="89"/>
+      <c r="AC75" s="41" t="s">
         <v>579</v>
       </c>
-      <c r="AC75" s="76"/>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD75" s="76"/>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B76" s="70" t="s">
         <v>24</v>
       </c>
@@ -7541,12 +7649,13 @@
         <v>1977</v>
       </c>
       <c r="AA76" s="40"/>
-      <c r="AB76" s="41" t="s">
+      <c r="AB76" s="89"/>
+      <c r="AC76" s="41" t="s">
         <v>579</v>
       </c>
-      <c r="AC76" s="41"/>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD76" s="41"/>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B77" s="70" t="s">
         <v>24</v>
       </c>
@@ -7597,12 +7706,13 @@
         <v>1977</v>
       </c>
       <c r="AA77" s="40"/>
-      <c r="AB77" s="41" t="s">
+      <c r="AB77" s="89"/>
+      <c r="AC77" s="41" t="s">
         <v>579</v>
       </c>
-      <c r="AC77" s="41"/>
-    </row>
-    <row r="78" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD77" s="41"/>
+    </row>
+    <row r="78" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B78" s="70" t="s">
         <v>24</v>
       </c>
@@ -7653,14 +7763,15 @@
         <v>1977</v>
       </c>
       <c r="AA78" s="40"/>
-      <c r="AB78" s="41" t="s">
+      <c r="AB78" s="89"/>
+      <c r="AC78" s="41" t="s">
         <v>579</v>
       </c>
-      <c r="AC78" s="41" t="s">
+      <c r="AD78" s="41" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="70" t="s">
         <v>26</v>
       </c>
@@ -7717,14 +7828,15 @@
         <v>1976</v>
       </c>
       <c r="AA79" s="40"/>
-      <c r="AB79" s="41" t="s">
+      <c r="AB79" s="89"/>
+      <c r="AC79" s="41" t="s">
         <v>580</v>
       </c>
-      <c r="AC79" s="41" t="s">
+      <c r="AD79" s="41" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B80" s="70" t="s">
         <v>26</v>
       </c>
@@ -7781,14 +7893,15 @@
         <v>1976</v>
       </c>
       <c r="AA80" s="40"/>
-      <c r="AB80" s="41" t="s">
+      <c r="AB80" s="89"/>
+      <c r="AC80" s="41" t="s">
         <v>580</v>
       </c>
-      <c r="AC80" s="41" t="s">
+      <c r="AD80" s="41" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="81" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B81" s="70" t="s">
         <v>27</v>
       </c>
@@ -7843,14 +7956,17 @@
       <c r="AA81" s="40">
         <v>1981</v>
       </c>
-      <c r="AB81" s="41" t="s">
+      <c r="AB81" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC81" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="AC81" t="s">
+      <c r="AD81" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="82" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B82" s="70" t="s">
         <v>27</v>
       </c>
@@ -7907,14 +8023,17 @@
       <c r="AA82" s="40">
         <v>1981</v>
       </c>
-      <c r="AB82" s="41" t="s">
+      <c r="AB82" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC82" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="AC82" s="41" t="s">
+      <c r="AD82" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="83" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B83" s="70" t="s">
         <v>27</v>
       </c>
@@ -7969,14 +8088,17 @@
       <c r="AA83" s="40">
         <v>1981</v>
       </c>
-      <c r="AB83" s="41" t="s">
+      <c r="AB83" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC83" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="AC83" s="41" t="s">
+      <c r="AD83" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="84" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B84" s="70" t="s">
         <v>27</v>
       </c>
@@ -8031,14 +8153,17 @@
       <c r="AA84" s="40">
         <v>1981</v>
       </c>
-      <c r="AB84" s="41" t="s">
+      <c r="AB84" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC84" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="AC84" s="41" t="s">
+      <c r="AD84" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="85" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B85" s="70" t="s">
         <v>27</v>
       </c>
@@ -8095,14 +8220,17 @@
       <c r="AA85" s="40">
         <v>1981</v>
       </c>
-      <c r="AB85" s="41" t="s">
+      <c r="AB85" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC85" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="AC85" s="41" t="s">
+      <c r="AD85" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="86" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B86" s="70" t="s">
         <v>27</v>
       </c>
@@ -8157,14 +8285,17 @@
       <c r="AA86" s="40">
         <v>1981</v>
       </c>
-      <c r="AB86" s="41" t="s">
+      <c r="AB86" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC86" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="AC86" s="41" t="s">
+      <c r="AD86" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="87" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B87" s="70" t="s">
         <v>27</v>
       </c>
@@ -8219,14 +8350,17 @@
       <c r="AA87" s="40">
         <v>1981</v>
       </c>
-      <c r="AB87" s="41" t="s">
+      <c r="AB87" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC87" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="AC87" s="41" t="s">
+      <c r="AD87" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="88" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B88" s="70" t="s">
         <v>27</v>
       </c>
@@ -8283,14 +8417,17 @@
       <c r="AA88" s="40">
         <v>1981</v>
       </c>
-      <c r="AB88" s="41" t="s">
+      <c r="AB88" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC88" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="AC88" s="41" t="s">
+      <c r="AD88" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="89" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B89" s="70" t="s">
         <v>27</v>
       </c>
@@ -8345,14 +8482,17 @@
       <c r="AA89" s="40">
         <v>1981</v>
       </c>
-      <c r="AB89" s="41" t="s">
+      <c r="AB89" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC89" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="AC89" s="41" t="s">
+      <c r="AD89" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="90" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B90" s="70" t="s">
         <v>27</v>
       </c>
@@ -8407,14 +8547,17 @@
       <c r="AA90" s="40">
         <v>1981</v>
       </c>
-      <c r="AB90" s="41" t="s">
+      <c r="AB90" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC90" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="AC90" s="41" t="s">
+      <c r="AD90" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="91" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B91" s="70" t="s">
         <v>27</v>
       </c>
@@ -8471,14 +8614,17 @@
       <c r="AA91" s="40">
         <v>1981</v>
       </c>
-      <c r="AB91" s="41" t="s">
+      <c r="AB91" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC91" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="AC91" s="41" t="s">
+      <c r="AD91" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="92" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B92" s="70" t="s">
         <v>27</v>
       </c>
@@ -8533,14 +8679,17 @@
       <c r="AA92" s="40">
         <v>1981</v>
       </c>
-      <c r="AB92" s="41" t="s">
+      <c r="AB92" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC92" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="AC92" s="41" t="s">
+      <c r="AD92" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="93" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B93" s="70" t="s">
         <v>27</v>
       </c>
@@ -8595,14 +8744,17 @@
       <c r="AA93" s="40">
         <v>1981</v>
       </c>
-      <c r="AB93" s="41" t="s">
+      <c r="AB93" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC93" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="AC93" s="41" t="s">
+      <c r="AD93" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="94" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B94" s="70" t="s">
         <v>27</v>
       </c>
@@ -8659,14 +8811,17 @@
       <c r="AA94" s="40">
         <v>1981</v>
       </c>
-      <c r="AB94" s="41" t="s">
+      <c r="AB94" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC94" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="AC94" s="41" t="s">
+      <c r="AD94" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="95" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B95" s="70" t="s">
         <v>27</v>
       </c>
@@ -8721,14 +8876,17 @@
       <c r="AA95" s="40">
         <v>1981</v>
       </c>
-      <c r="AB95" s="41" t="s">
+      <c r="AB95" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC95" s="41" t="s">
         <v>611</v>
       </c>
-      <c r="AC95" s="41" t="s">
+      <c r="AD95" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="96" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B96" s="70" t="s">
         <v>27</v>
       </c>
@@ -8783,12 +8941,15 @@
         <v>1976</v>
       </c>
       <c r="AA96" s="40"/>
-      <c r="AB96" s="46" t="s">
+      <c r="AB96" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC96" s="46" t="s">
         <v>609</v>
       </c>
-      <c r="AC96" s="41"/>
-    </row>
-    <row r="97" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD96" s="41"/>
+    </row>
+    <row r="97" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B97" s="70" t="s">
         <v>27</v>
       </c>
@@ -8845,12 +9006,15 @@
         <v>1976</v>
       </c>
       <c r="AA97" s="40"/>
-      <c r="AB97" s="46" t="s">
+      <c r="AB97" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC97" s="46" t="s">
         <v>609</v>
       </c>
-      <c r="AC97" s="41"/>
-    </row>
-    <row r="98" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD97" s="41"/>
+    </row>
+    <row r="98" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B98" s="70" t="s">
         <v>27</v>
       </c>
@@ -8905,12 +9069,15 @@
         <v>1976</v>
       </c>
       <c r="AA98" s="40"/>
-      <c r="AB98" s="46" t="s">
+      <c r="AB98" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC98" s="46" t="s">
         <v>609</v>
       </c>
-      <c r="AC98" s="41"/>
-    </row>
-    <row r="99" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD98" s="41"/>
+    </row>
+    <row r="99" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B99" s="70" t="s">
         <v>27</v>
       </c>
@@ -8963,12 +9130,15 @@
         <v>1976</v>
       </c>
       <c r="AA99" s="40"/>
-      <c r="AB99" s="46" t="s">
+      <c r="AB99" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC99" s="46" t="s">
         <v>609</v>
       </c>
-      <c r="AC99" s="41"/>
-    </row>
-    <row r="100" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD99" s="41"/>
+    </row>
+    <row r="100" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B100" s="70" t="s">
         <v>27</v>
       </c>
@@ -9021,12 +9191,15 @@
         <v>1982</v>
       </c>
       <c r="AA100" s="40"/>
-      <c r="AB100" s="41" t="s">
+      <c r="AB100" s="89" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC100" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC100" s="41"/>
-    </row>
-    <row r="101" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD100" s="41"/>
+    </row>
+    <row r="101" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B101" s="70" t="s">
         <v>27</v>
       </c>
@@ -9079,12 +9252,15 @@
         <v>1982</v>
       </c>
       <c r="AA101" s="40"/>
-      <c r="AB101" s="41" t="s">
+      <c r="AB101" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC101" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC101" s="41"/>
-    </row>
-    <row r="102" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD101" s="41"/>
+    </row>
+    <row r="102" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B102" s="70" t="s">
         <v>27</v>
       </c>
@@ -9137,12 +9313,15 @@
         <v>1982</v>
       </c>
       <c r="AA102" s="40"/>
-      <c r="AB102" s="41" t="s">
+      <c r="AB102" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC102" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC102" s="41"/>
-    </row>
-    <row r="103" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD102" s="41"/>
+    </row>
+    <row r="103" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B103" s="70" t="s">
         <v>27</v>
       </c>
@@ -9195,12 +9374,15 @@
         <v>1982</v>
       </c>
       <c r="AA103" s="40"/>
-      <c r="AB103" s="41" t="s">
+      <c r="AB103" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC103" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC103" s="41"/>
-    </row>
-    <row r="104" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD103" s="41"/>
+    </row>
+    <row r="104" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B104" s="70" t="s">
         <v>27</v>
       </c>
@@ -9253,12 +9435,15 @@
         <v>1982</v>
       </c>
       <c r="AA104" s="40"/>
-      <c r="AB104" s="41" t="s">
+      <c r="AB104" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC104" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC104" s="41"/>
-    </row>
-    <row r="105" spans="2:29" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD104" s="41"/>
+    </row>
+    <row r="105" spans="2:30" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="70" t="s">
         <v>27</v>
       </c>
@@ -9311,12 +9496,15 @@
         <v>1982</v>
       </c>
       <c r="AA105" s="40"/>
-      <c r="AB105" s="41" t="s">
+      <c r="AB105" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC105" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC105" s="41"/>
-    </row>
-    <row r="106" spans="2:29" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD105" s="41"/>
+    </row>
+    <row r="106" spans="2:30" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="70" t="s">
         <v>27</v>
       </c>
@@ -9369,12 +9557,15 @@
         <v>1982</v>
       </c>
       <c r="AA106" s="40"/>
-      <c r="AB106" s="41" t="s">
+      <c r="AB106" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC106" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC106" s="41"/>
-    </row>
-    <row r="107" spans="2:29" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD106" s="41"/>
+    </row>
+    <row r="107" spans="2:30" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="70" t="s">
         <v>27</v>
       </c>
@@ -9427,12 +9618,15 @@
         <v>1982</v>
       </c>
       <c r="AA107" s="40"/>
-      <c r="AB107" s="41" t="s">
+      <c r="AB107" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC107" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC107" s="41"/>
-    </row>
-    <row r="108" spans="2:29" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD107" s="41"/>
+    </row>
+    <row r="108" spans="2:30" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="70" t="s">
         <v>27</v>
       </c>
@@ -9485,12 +9679,15 @@
         <v>1982</v>
       </c>
       <c r="AA108" s="40"/>
-      <c r="AB108" s="41" t="s">
+      <c r="AB108" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC108" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC108" s="41"/>
-    </row>
-    <row r="109" spans="2:29" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD108" s="41"/>
+    </row>
+    <row r="109" spans="2:30" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="70" t="s">
         <v>27</v>
       </c>
@@ -9543,12 +9740,15 @@
         <v>1982</v>
       </c>
       <c r="AA109" s="40"/>
-      <c r="AB109" s="41" t="s">
+      <c r="AB109" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC109" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC109" s="41"/>
-    </row>
-    <row r="110" spans="2:29" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD109" s="41"/>
+    </row>
+    <row r="110" spans="2:30" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="70" t="s">
         <v>27</v>
       </c>
@@ -9601,12 +9801,15 @@
         <v>1982</v>
       </c>
       <c r="AA110" s="40"/>
-      <c r="AB110" s="41" t="s">
+      <c r="AB110" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC110" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC110" s="41"/>
-    </row>
-    <row r="111" spans="2:29" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD110" s="41"/>
+    </row>
+    <row r="111" spans="2:30" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="70" t="s">
         <v>27</v>
       </c>
@@ -9659,12 +9862,15 @@
         <v>1982</v>
       </c>
       <c r="AA111" s="40"/>
-      <c r="AB111" s="41" t="s">
+      <c r="AB111" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC111" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC111" s="41"/>
-    </row>
-    <row r="112" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD111" s="41"/>
+    </row>
+    <row r="112" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B112" s="70" t="s">
         <v>27</v>
       </c>
@@ -9717,12 +9923,15 @@
         <v>1982</v>
       </c>
       <c r="AA112" s="40"/>
-      <c r="AB112" s="41" t="s">
+      <c r="AB112" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC112" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC112" s="41"/>
-    </row>
-    <row r="113" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD112" s="41"/>
+    </row>
+    <row r="113" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B113" s="70" t="s">
         <v>27</v>
       </c>
@@ -9775,12 +9984,15 @@
         <v>1982</v>
       </c>
       <c r="AA113" s="40"/>
-      <c r="AB113" s="41" t="s">
+      <c r="AB113" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC113" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC113" s="41"/>
-    </row>
-    <row r="114" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD113" s="41"/>
+    </row>
+    <row r="114" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B114" s="70" t="s">
         <v>27</v>
       </c>
@@ -9833,12 +10045,15 @@
         <v>1982</v>
       </c>
       <c r="AA114" s="40"/>
-      <c r="AB114" s="41" t="s">
+      <c r="AB114" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC114" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC114" s="41"/>
-    </row>
-    <row r="115" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD114" s="41"/>
+    </row>
+    <row r="115" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B115" s="70" t="s">
         <v>27</v>
       </c>
@@ -9891,12 +10106,15 @@
         <v>1982</v>
       </c>
       <c r="AA115" s="40"/>
-      <c r="AB115" s="41" t="s">
+      <c r="AB115" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC115" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC115" s="41"/>
-    </row>
-    <row r="116" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD115" s="41"/>
+    </row>
+    <row r="116" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B116" s="70" t="s">
         <v>27</v>
       </c>
@@ -9949,12 +10167,15 @@
         <v>1982</v>
       </c>
       <c r="AA116" s="40"/>
-      <c r="AB116" s="41" t="s">
+      <c r="AB116" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC116" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC116" s="41"/>
-    </row>
-    <row r="117" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD116" s="41"/>
+    </row>
+    <row r="117" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B117" s="70" t="s">
         <v>27</v>
       </c>
@@ -10007,12 +10228,15 @@
         <v>1982</v>
       </c>
       <c r="AA117" s="40"/>
-      <c r="AB117" s="41" t="s">
+      <c r="AB117" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC117" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC117" s="41"/>
-    </row>
-    <row r="118" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD117" s="41"/>
+    </row>
+    <row r="118" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B118" s="70" t="s">
         <v>27</v>
       </c>
@@ -10065,12 +10289,15 @@
         <v>1982</v>
       </c>
       <c r="AA118" s="40"/>
-      <c r="AB118" s="41" t="s">
+      <c r="AB118" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC118" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC118" s="41"/>
-    </row>
-    <row r="119" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD118" s="41"/>
+    </row>
+    <row r="119" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B119" s="70" t="s">
         <v>27</v>
       </c>
@@ -10123,12 +10350,15 @@
         <v>1982</v>
       </c>
       <c r="AA119" s="40"/>
-      <c r="AB119" s="41" t="s">
+      <c r="AB119" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC119" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC119" s="41"/>
-    </row>
-    <row r="120" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD119" s="41"/>
+    </row>
+    <row r="120" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B120" s="70" t="s">
         <v>27</v>
       </c>
@@ -10181,12 +10411,15 @@
         <v>1982</v>
       </c>
       <c r="AA120" s="40"/>
-      <c r="AB120" s="41" t="s">
+      <c r="AB120" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC120" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC120" s="41"/>
-    </row>
-    <row r="121" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD120" s="41"/>
+    </row>
+    <row r="121" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B121" s="70" t="s">
         <v>27</v>
       </c>
@@ -10239,12 +10472,15 @@
         <v>1982</v>
       </c>
       <c r="AA121" s="40"/>
-      <c r="AB121" s="41" t="s">
+      <c r="AB121" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC121" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC121" s="41"/>
-    </row>
-    <row r="122" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD121" s="41"/>
+    </row>
+    <row r="122" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B122" s="70" t="s">
         <v>27</v>
       </c>
@@ -10297,12 +10533,15 @@
         <v>1982</v>
       </c>
       <c r="AA122" s="40"/>
-      <c r="AB122" s="41" t="s">
+      <c r="AB122" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC122" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC122" s="41"/>
-    </row>
-    <row r="123" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD122" s="41"/>
+    </row>
+    <row r="123" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B123" s="70" t="s">
         <v>27</v>
       </c>
@@ -10355,12 +10594,15 @@
         <v>1982</v>
       </c>
       <c r="AA123" s="40"/>
-      <c r="AB123" s="41" t="s">
+      <c r="AB123" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC123" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC123" s="41"/>
-    </row>
-    <row r="124" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD123" s="41"/>
+    </row>
+    <row r="124" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B124" s="70" t="s">
         <v>27</v>
       </c>
@@ -10413,12 +10655,15 @@
         <v>1982</v>
       </c>
       <c r="AA124" s="40"/>
-      <c r="AB124" s="41" t="s">
+      <c r="AB124" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC124" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC124" s="41"/>
-    </row>
-    <row r="125" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD124" s="41"/>
+    </row>
+    <row r="125" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B125" s="70" t="s">
         <v>27</v>
       </c>
@@ -10471,12 +10716,15 @@
         <v>1982</v>
       </c>
       <c r="AA125" s="40"/>
-      <c r="AB125" s="41" t="s">
+      <c r="AB125" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC125" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC125" s="41"/>
-    </row>
-    <row r="126" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD125" s="41"/>
+    </row>
+    <row r="126" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B126" s="70" t="s">
         <v>27</v>
       </c>
@@ -10529,12 +10777,15 @@
         <v>1982</v>
       </c>
       <c r="AA126" s="40"/>
-      <c r="AB126" s="41" t="s">
+      <c r="AB126" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC126" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC126" s="41"/>
-    </row>
-    <row r="127" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD126" s="41"/>
+    </row>
+    <row r="127" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B127" s="70" t="s">
         <v>27</v>
       </c>
@@ -10587,12 +10838,15 @@
         <v>1982</v>
       </c>
       <c r="AA127" s="40"/>
-      <c r="AB127" s="41" t="s">
+      <c r="AB127" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC127" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC127" s="41"/>
-    </row>
-    <row r="128" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD127" s="41"/>
+    </row>
+    <row r="128" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B128" s="70" t="s">
         <v>27</v>
       </c>
@@ -10645,12 +10899,15 @@
         <v>1982</v>
       </c>
       <c r="AA128" s="40"/>
-      <c r="AB128" s="41" t="s">
+      <c r="AB128" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC128" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC128" s="41"/>
-    </row>
-    <row r="129" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD128" s="41"/>
+    </row>
+    <row r="129" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B129" s="70" t="s">
         <v>27</v>
       </c>
@@ -10703,12 +10960,15 @@
         <v>1982</v>
       </c>
       <c r="AA129" s="40"/>
-      <c r="AB129" s="41" t="s">
+      <c r="AB129" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC129" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC129" s="41"/>
-    </row>
-    <row r="130" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD129" s="41"/>
+    </row>
+    <row r="130" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B130" s="70" t="s">
         <v>27</v>
       </c>
@@ -10761,12 +11021,15 @@
         <v>1982</v>
       </c>
       <c r="AA130" s="40"/>
-      <c r="AB130" s="41" t="s">
+      <c r="AB130" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC130" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC130" s="41"/>
-    </row>
-    <row r="131" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD130" s="41"/>
+    </row>
+    <row r="131" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B131" s="70" t="s">
         <v>27</v>
       </c>
@@ -10819,12 +11082,15 @@
         <v>1982</v>
       </c>
       <c r="AA131" s="40"/>
-      <c r="AB131" s="41" t="s">
+      <c r="AB131" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC131" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC131" s="41"/>
-    </row>
-    <row r="132" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD131" s="41"/>
+    </row>
+    <row r="132" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B132" s="70" t="s">
         <v>27</v>
       </c>
@@ -10877,12 +11143,15 @@
         <v>1982</v>
       </c>
       <c r="AA132" s="40"/>
-      <c r="AB132" s="41" t="s">
+      <c r="AB132" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC132" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC132" s="41"/>
-    </row>
-    <row r="133" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD132" s="41"/>
+    </row>
+    <row r="133" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B133" s="70" t="s">
         <v>27</v>
       </c>
@@ -10935,12 +11204,15 @@
         <v>1982</v>
       </c>
       <c r="AA133" s="40"/>
-      <c r="AB133" s="41" t="s">
+      <c r="AB133" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC133" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC133" s="41"/>
-    </row>
-    <row r="134" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD133" s="41"/>
+    </row>
+    <row r="134" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B134" s="70" t="s">
         <v>27</v>
       </c>
@@ -10993,12 +11265,15 @@
         <v>1982</v>
       </c>
       <c r="AA134" s="40"/>
-      <c r="AB134" s="41" t="s">
+      <c r="AB134" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC134" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC134" s="41"/>
-    </row>
-    <row r="135" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD134" s="41"/>
+    </row>
+    <row r="135" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B135" s="70" t="s">
         <v>27</v>
       </c>
@@ -11051,12 +11326,15 @@
         <v>1982</v>
       </c>
       <c r="AA135" s="40"/>
-      <c r="AB135" s="41" t="s">
+      <c r="AB135" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC135" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC135" s="41"/>
-    </row>
-    <row r="136" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD135" s="41"/>
+    </row>
+    <row r="136" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B136" s="70" t="s">
         <v>27</v>
       </c>
@@ -11109,12 +11387,15 @@
         <v>1982</v>
       </c>
       <c r="AA136" s="40"/>
-      <c r="AB136" s="41" t="s">
+      <c r="AB136" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC136" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC136" s="41"/>
-    </row>
-    <row r="137" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD136" s="41"/>
+    </row>
+    <row r="137" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B137" s="70" t="s">
         <v>27</v>
       </c>
@@ -11167,12 +11448,15 @@
         <v>1982</v>
       </c>
       <c r="AA137" s="40"/>
-      <c r="AB137" s="41" t="s">
+      <c r="AB137" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC137" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC137" s="41"/>
-    </row>
-    <row r="138" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD137" s="41"/>
+    </row>
+    <row r="138" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B138" s="70" t="s">
         <v>27</v>
       </c>
@@ -11225,12 +11509,15 @@
         <v>1982</v>
       </c>
       <c r="AA138" s="40"/>
-      <c r="AB138" s="41" t="s">
+      <c r="AB138" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC138" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC138" s="41"/>
-    </row>
-    <row r="139" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD138" s="41"/>
+    </row>
+    <row r="139" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B139" s="70" t="s">
         <v>27</v>
       </c>
@@ -11283,12 +11570,15 @@
         <v>1982</v>
       </c>
       <c r="AA139" s="40"/>
-      <c r="AB139" s="41" t="s">
+      <c r="AB139" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC139" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC139" s="41"/>
-    </row>
-    <row r="140" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD139" s="41"/>
+    </row>
+    <row r="140" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B140" s="70" t="s">
         <v>27</v>
       </c>
@@ -11341,12 +11631,15 @@
         <v>1982</v>
       </c>
       <c r="AA140" s="40"/>
-      <c r="AB140" s="41" t="s">
+      <c r="AB140" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC140" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC140" s="41"/>
-    </row>
-    <row r="141" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD140" s="41"/>
+    </row>
+    <row r="141" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B141" s="70" t="s">
         <v>27</v>
       </c>
@@ -11399,12 +11692,15 @@
         <v>1982</v>
       </c>
       <c r="AA141" s="40"/>
-      <c r="AB141" s="41" t="s">
+      <c r="AB141" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC141" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC141" s="41"/>
-    </row>
-    <row r="142" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD141" s="41"/>
+    </row>
+    <row r="142" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B142" s="70" t="s">
         <v>27</v>
       </c>
@@ -11457,12 +11753,15 @@
         <v>1982</v>
       </c>
       <c r="AA142" s="40"/>
-      <c r="AB142" s="41" t="s">
+      <c r="AB142" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC142" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC142" s="41"/>
-    </row>
-    <row r="143" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD142" s="41"/>
+    </row>
+    <row r="143" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B143" s="70" t="s">
         <v>27</v>
       </c>
@@ -11515,12 +11814,15 @@
         <v>1982</v>
       </c>
       <c r="AA143" s="40"/>
-      <c r="AB143" s="41" t="s">
+      <c r="AB143" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC143" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC143" s="41"/>
-    </row>
-    <row r="144" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD143" s="41"/>
+    </row>
+    <row r="144" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B144" s="70" t="s">
         <v>27</v>
       </c>
@@ -11573,12 +11875,15 @@
         <v>1982</v>
       </c>
       <c r="AA144" s="40"/>
-      <c r="AB144" s="41" t="s">
+      <c r="AB144" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC144" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC144" s="41"/>
-    </row>
-    <row r="145" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD144" s="41"/>
+    </row>
+    <row r="145" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B145" s="70" t="s">
         <v>27</v>
       </c>
@@ -11631,12 +11936,15 @@
         <v>1982</v>
       </c>
       <c r="AA145" s="40"/>
-      <c r="AB145" s="41" t="s">
+      <c r="AB145" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC145" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC145" s="41"/>
-    </row>
-    <row r="146" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD145" s="41"/>
+    </row>
+    <row r="146" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B146" s="70" t="s">
         <v>27</v>
       </c>
@@ -11689,12 +11997,15 @@
         <v>1982</v>
       </c>
       <c r="AA146" s="40"/>
-      <c r="AB146" s="41" t="s">
+      <c r="AB146" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC146" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC146" s="41"/>
-    </row>
-    <row r="147" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD146" s="41"/>
+    </row>
+    <row r="147" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B147" s="70" t="s">
         <v>27</v>
       </c>
@@ -11747,12 +12058,15 @@
         <v>1982</v>
       </c>
       <c r="AA147" s="40"/>
-      <c r="AB147" s="41" t="s">
+      <c r="AB147" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC147" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC147" s="41"/>
-    </row>
-    <row r="148" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD147" s="41"/>
+    </row>
+    <row r="148" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B148" s="70" t="s">
         <v>27</v>
       </c>
@@ -11805,12 +12119,15 @@
         <v>1982</v>
       </c>
       <c r="AA148" s="40"/>
-      <c r="AB148" s="41" t="s">
+      <c r="AB148" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC148" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC148" s="41"/>
-    </row>
-    <row r="149" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD148" s="41"/>
+    </row>
+    <row r="149" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B149" s="70" t="s">
         <v>27</v>
       </c>
@@ -11863,12 +12180,15 @@
         <v>1982</v>
       </c>
       <c r="AA149" s="40"/>
-      <c r="AB149" s="41" t="s">
+      <c r="AB149" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC149" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC149" s="41"/>
-    </row>
-    <row r="150" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD149" s="41"/>
+    </row>
+    <row r="150" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B150" s="70" t="s">
         <v>27</v>
       </c>
@@ -11921,12 +12241,15 @@
         <v>1982</v>
       </c>
       <c r="AA150" s="40"/>
-      <c r="AB150" s="41" t="s">
+      <c r="AB150" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC150" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC150" s="41"/>
-    </row>
-    <row r="151" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD150" s="41"/>
+    </row>
+    <row r="151" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B151" s="70" t="s">
         <v>27</v>
       </c>
@@ -11979,12 +12302,15 @@
         <v>1982</v>
       </c>
       <c r="AA151" s="40"/>
-      <c r="AB151" s="41" t="s">
+      <c r="AB151" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC151" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC151" s="41"/>
-    </row>
-    <row r="152" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD151" s="41"/>
+    </row>
+    <row r="152" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B152" s="70" t="s">
         <v>27</v>
       </c>
@@ -12037,12 +12363,15 @@
         <v>1982</v>
       </c>
       <c r="AA152" s="40"/>
-      <c r="AB152" s="41" t="s">
+      <c r="AB152" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC152" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC152" s="41"/>
-    </row>
-    <row r="153" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD152" s="41"/>
+    </row>
+    <row r="153" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B153" s="70" t="s">
         <v>27</v>
       </c>
@@ -12095,12 +12424,15 @@
         <v>1982</v>
       </c>
       <c r="AA153" s="40"/>
-      <c r="AB153" s="41" t="s">
+      <c r="AB153" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC153" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC153" s="41"/>
-    </row>
-    <row r="154" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD153" s="41"/>
+    </row>
+    <row r="154" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B154" s="70" t="s">
         <v>27</v>
       </c>
@@ -12153,12 +12485,15 @@
         <v>1982</v>
       </c>
       <c r="AA154" s="40"/>
-      <c r="AB154" s="41" t="s">
+      <c r="AB154" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC154" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AC154" s="41"/>
-    </row>
-    <row r="155" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD154" s="41"/>
+    </row>
+    <row r="155" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B155" s="70" t="s">
         <v>29</v>
       </c>
@@ -12217,14 +12552,14 @@
         <v>1976</v>
       </c>
       <c r="AA155" s="40"/>
-      <c r="AB155" s="41" t="s">
+      <c r="AC155" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AC155" s="41" t="s">
+      <c r="AD155" s="41" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="156" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B156" s="70" t="s">
         <v>33</v>
       </c>
@@ -12281,12 +12616,15 @@
       <c r="AA156" s="40">
         <v>1991</v>
       </c>
-      <c r="AB156" s="41" t="s">
+      <c r="AB156" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC156" s="41" t="s">
         <v>613</v>
       </c>
-      <c r="AC156" s="41"/>
-    </row>
-    <row r="157" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD156" s="41"/>
+    </row>
+    <row r="157" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B157" s="70" t="s">
         <v>33</v>
       </c>
@@ -12341,12 +12679,15 @@
         <v>1992</v>
       </c>
       <c r="AA157" s="40"/>
-      <c r="AB157" s="41" t="s">
+      <c r="AB157" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC157" s="41" t="s">
         <v>614</v>
       </c>
-      <c r="AC157" s="41"/>
-    </row>
-    <row r="158" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD157" s="41"/>
+    </row>
+    <row r="158" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B158" s="70" t="s">
         <v>33</v>
       </c>
@@ -12406,12 +12747,13 @@
       <c r="AA158" s="40">
         <v>1985</v>
       </c>
-      <c r="AB158" s="41" t="s">
+      <c r="AB158" s="39"/>
+      <c r="AC158" s="41" t="s">
         <v>615</v>
       </c>
-      <c r="AC158" s="41"/>
-    </row>
-    <row r="159" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD158" s="41"/>
+    </row>
+    <row r="159" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B159" s="70" t="s">
         <v>33</v>
       </c>
@@ -12470,12 +12812,13 @@
       <c r="AA159" s="40">
         <v>1989</v>
       </c>
-      <c r="AB159" s="41" t="s">
+      <c r="AB159" s="39"/>
+      <c r="AC159" s="41" t="s">
         <v>615</v>
       </c>
-      <c r="AC159" s="41"/>
-    </row>
-    <row r="160" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD159" s="41"/>
+    </row>
+    <row r="160" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B160" s="70" t="s">
         <v>33</v>
       </c>
@@ -12486,7 +12829,7 @@
         <v>113</v>
       </c>
       <c r="E160" s="34"/>
-      <c r="F160" s="85" t="s">
+      <c r="F160" s="2" t="s">
         <v>304</v>
       </c>
       <c r="G160" s="42">
@@ -12533,12 +12876,13 @@
         <v>1989</v>
       </c>
       <c r="AA160" s="40"/>
-      <c r="AB160" s="41" t="s">
+      <c r="AB160" s="39"/>
+      <c r="AC160" s="41" t="s">
         <v>616</v>
       </c>
-      <c r="AC160" s="41"/>
-    </row>
-    <row r="161" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD160" s="41"/>
+    </row>
+    <row r="161" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B161" s="70" t="s">
         <v>33</v>
       </c>
@@ -12599,14 +12943,15 @@
       <c r="AA161" s="40">
         <v>1983</v>
       </c>
-      <c r="AB161" s="41" t="s">
+      <c r="AB161" s="39"/>
+      <c r="AC161" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC161" t="s">
+      <c r="AD161" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="162" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B162" s="70" t="s">
         <v>33</v>
       </c>
@@ -12665,14 +13010,15 @@
       <c r="AA162" s="40">
         <v>1983</v>
       </c>
-      <c r="AB162" s="41" t="s">
+      <c r="AB162" s="39"/>
+      <c r="AC162" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC162" s="41" t="s">
+      <c r="AD162" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="163" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B163" s="70" t="s">
         <v>33</v>
       </c>
@@ -12731,14 +13077,15 @@
       <c r="AA163" s="40">
         <v>1983</v>
       </c>
-      <c r="AB163" s="41" t="s">
+      <c r="AB163" s="39"/>
+      <c r="AC163" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC163" s="41" t="s">
+      <c r="AD163" s="41" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="164" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B164" s="70" t="s">
         <v>34</v>
       </c>
@@ -12795,12 +13142,13 @@
       <c r="AA164" s="40">
         <v>1976</v>
       </c>
-      <c r="AB164" s="41" t="s">
+      <c r="AB164" s="39"/>
+      <c r="AC164" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC164" s="41"/>
-    </row>
-    <row r="165" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD164" s="41"/>
+    </row>
+    <row r="165" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B165" s="70" t="s">
         <v>34</v>
       </c>
@@ -12855,14 +13203,15 @@
       <c r="AA165" s="40">
         <v>1984</v>
       </c>
-      <c r="AB165" s="41" t="s">
+      <c r="AB165" s="39"/>
+      <c r="AC165" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC165" s="95" t="s">
+      <c r="AD165" s="93" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="166" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B166" s="70" t="s">
         <v>34</v>
       </c>
@@ -12917,14 +13266,15 @@
       <c r="AA166" s="40">
         <v>1984</v>
       </c>
-      <c r="AB166" s="41" t="s">
+      <c r="AB166" s="39"/>
+      <c r="AC166" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC166" t="s">
+      <c r="AD166" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="167" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B167" s="70" t="s">
         <v>34</v>
       </c>
@@ -12981,12 +13331,13 @@
         <v>1984</v>
       </c>
       <c r="AA167" s="40"/>
-      <c r="AB167" s="41" t="s">
+      <c r="AB167" s="39"/>
+      <c r="AC167" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="AC167" s="41"/>
-    </row>
-    <row r="168" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD167" s="41"/>
+    </row>
+    <row r="168" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B168" s="70" t="s">
         <v>34</v>
       </c>
@@ -13039,14 +13390,15 @@
         <v>1984</v>
       </c>
       <c r="AA168" s="40"/>
-      <c r="AB168" s="41" t="s">
+      <c r="AB168" s="39"/>
+      <c r="AC168" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="AC168" s="41" t="s">
+      <c r="AD168" s="41" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="169" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B169" s="70" t="s">
         <v>36</v>
       </c>
@@ -13105,12 +13457,15 @@
       <c r="AA169" s="40">
         <v>1978</v>
       </c>
-      <c r="AB169" s="41" t="s">
+      <c r="AB169" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC169" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC169" s="41"/>
-    </row>
-    <row r="170" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD169" s="41"/>
+    </row>
+    <row r="170" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B170" s="70" t="s">
         <v>36</v>
       </c>
@@ -13169,14 +13524,17 @@
       <c r="AA170" s="40">
         <v>2011</v>
       </c>
-      <c r="AB170" s="41" t="s">
+      <c r="AB170" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC170" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="AC170" s="41" t="s">
+      <c r="AD170" s="41" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="171" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B171" s="70" t="s">
         <v>36</v>
       </c>
@@ -13235,14 +13593,17 @@
       <c r="AA171" s="40">
         <v>2011</v>
       </c>
-      <c r="AB171" s="41" t="s">
+      <c r="AB171" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC171" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="AC171" s="41" t="s">
+      <c r="AD171" s="41" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="172" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B172" s="70" t="s">
         <v>36</v>
       </c>
@@ -13303,12 +13664,15 @@
       <c r="AA172" s="40">
         <v>1978</v>
       </c>
-      <c r="AB172" s="41" t="s">
+      <c r="AB172" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC172" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC172" s="41"/>
-    </row>
-    <row r="173" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD172" s="41"/>
+    </row>
+    <row r="173" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B173" s="70" t="s">
         <v>36</v>
       </c>
@@ -13369,12 +13733,15 @@
       <c r="AA173" s="40">
         <v>2011</v>
       </c>
-      <c r="AB173" s="41" t="s">
+      <c r="AB173" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC173" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="AC173" s="41"/>
-    </row>
-    <row r="174" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD173" s="41"/>
+    </row>
+    <row r="174" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B174" s="70" t="s">
         <v>36</v>
       </c>
@@ -13431,12 +13798,15 @@
       <c r="AA174" s="40">
         <v>2011</v>
       </c>
-      <c r="AB174" s="41" t="s">
+      <c r="AB174" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC174" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="AC174" s="41"/>
-    </row>
-    <row r="175" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD174" s="41"/>
+    </row>
+    <row r="175" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B175" s="70" t="s">
         <v>36</v>
       </c>
@@ -13493,12 +13863,15 @@
       <c r="AA175" s="40">
         <v>2011</v>
       </c>
-      <c r="AB175" s="41" t="s">
+      <c r="AB175" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC175" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="AC175" s="41"/>
-    </row>
-    <row r="176" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD175" s="41"/>
+    </row>
+    <row r="176" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B176" s="70" t="s">
         <v>36</v>
       </c>
@@ -13553,12 +13926,15 @@
       <c r="AA176" s="40">
         <v>2011</v>
       </c>
-      <c r="AB176" s="41" t="s">
+      <c r="AB176" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC176" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="AC176" s="41"/>
-    </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD176" s="41"/>
+    </row>
+    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B177" s="70" t="s">
         <v>36</v>
       </c>
@@ -13613,12 +13989,15 @@
       <c r="AA177" s="40">
         <v>2011</v>
       </c>
-      <c r="AB177" s="41" t="s">
+      <c r="AB177" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC177" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="AC177" s="41"/>
-    </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD177" s="41"/>
+    </row>
+    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B178" s="70" t="s">
         <v>36</v>
       </c>
@@ -13673,12 +14052,15 @@
       <c r="AA178" s="40">
         <v>2011</v>
       </c>
-      <c r="AB178" s="41" t="s">
+      <c r="AB178" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC178" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="AC178" s="41"/>
-    </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD178" s="41"/>
+    </row>
+    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B179" s="70" t="s">
         <v>36</v>
       </c>
@@ -13733,12 +14115,15 @@
       <c r="AA179" s="40">
         <v>2011</v>
       </c>
-      <c r="AB179" s="41" t="s">
+      <c r="AB179" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC179" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="AC179" s="41"/>
-    </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD179" s="41"/>
+    </row>
+    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B180" s="70" t="s">
         <v>36</v>
       </c>
@@ -13797,12 +14182,15 @@
       <c r="AA180" s="40">
         <v>2011</v>
       </c>
-      <c r="AB180" s="41" t="s">
+      <c r="AB180" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC180" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="AC180" s="41"/>
-    </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD180" s="41"/>
+    </row>
+    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B181" s="70" t="s">
         <v>36</v>
       </c>
@@ -13863,12 +14251,15 @@
       <c r="AA181" s="40">
         <v>2011</v>
       </c>
-      <c r="AB181" s="41" t="s">
+      <c r="AB181" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC181" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="AC181" s="41"/>
-    </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD181" s="41"/>
+    </row>
+    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B182" s="70" t="s">
         <v>36</v>
       </c>
@@ -13927,16 +14318,19 @@
       <c r="AA182" s="40">
         <v>2011</v>
       </c>
-      <c r="AB182" s="41" t="s">
+      <c r="AB182" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC182" s="41" t="s">
         <v>583</v>
       </c>
-      <c r="AC182" s="41"/>
-    </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD182" s="41"/>
+    </row>
+    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B183" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="C183" s="88" t="s">
+      <c r="C183" s="86" t="s">
         <v>380</v>
       </c>
       <c r="D183" s="53" t="s">
@@ -13991,16 +14385,19 @@
       <c r="AA183" s="40">
         <v>2011</v>
       </c>
-      <c r="AB183" s="41" t="s">
+      <c r="AB183" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC183" s="41" t="s">
         <v>584</v>
       </c>
-      <c r="AC183" s="41"/>
-    </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD183" s="41"/>
+    </row>
+    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B184" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="C184" s="88" t="s">
+      <c r="C184" s="86" t="s">
         <v>380</v>
       </c>
       <c r="D184" s="53" t="s">
@@ -14057,14 +14454,17 @@
       <c r="AA184" s="40">
         <v>2011</v>
       </c>
-      <c r="AB184" s="41" t="s">
+      <c r="AB184" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC184" s="41" t="s">
         <v>585</v>
       </c>
-      <c r="AC184" s="41" t="s">
+      <c r="AD184" s="41" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B185" s="70" t="s">
         <v>36</v>
       </c>
@@ -14123,12 +14523,15 @@
         <v>2012</v>
       </c>
       <c r="AA185" s="40"/>
-      <c r="AB185" s="41" t="s">
+      <c r="AB185" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC185" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="AC185" s="41"/>
-    </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD185" s="41"/>
+    </row>
+    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B186" s="70" t="s">
         <v>36</v>
       </c>
@@ -14187,12 +14590,15 @@
         <v>2012</v>
       </c>
       <c r="AA186" s="40"/>
-      <c r="AB186" s="41" t="s">
+      <c r="AB186" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC186" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="AC186" s="41"/>
-    </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD186" s="41"/>
+    </row>
+    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B187" s="70" t="s">
         <v>36</v>
       </c>
@@ -14253,12 +14659,15 @@
         <v>2012</v>
       </c>
       <c r="AA187" s="40"/>
-      <c r="AB187" s="41" t="s">
+      <c r="AB187" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC187" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="AC187" s="41"/>
-    </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD187" s="41"/>
+    </row>
+    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>183</v>
       </c>
@@ -14321,12 +14730,15 @@
       <c r="AA188" s="40">
         <v>2006</v>
       </c>
-      <c r="AB188" s="41" t="s">
+      <c r="AB188" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC188" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="AC188" s="41"/>
-    </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD188" s="41"/>
+    </row>
+    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B189" s="70" t="s">
         <v>36</v>
       </c>
@@ -14384,12 +14796,15 @@
         <v>2006</v>
       </c>
       <c r="AA189" s="40"/>
-      <c r="AB189" s="41" t="s">
+      <c r="AB189" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC189" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="AC189" s="41"/>
-    </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD189" s="41"/>
+    </row>
+    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B190" s="70" t="s">
         <v>38</v>
       </c>
@@ -14446,12 +14861,13 @@
       <c r="AA190" s="40">
         <v>1975</v>
       </c>
-      <c r="AB190" s="41" t="s">
+      <c r="AB190" s="39"/>
+      <c r="AC190" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="AC190" s="41"/>
-    </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD190" s="41"/>
+    </row>
+    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B191" s="70" t="s">
         <v>38</v>
       </c>
@@ -14508,12 +14924,13 @@
       <c r="AA191" s="40">
         <v>1978</v>
       </c>
-      <c r="AB191" s="41" t="s">
+      <c r="AB191" s="39"/>
+      <c r="AC191" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="AC191" s="41"/>
-    </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD191" s="41"/>
+    </row>
+    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B192" s="70" t="s">
         <v>38</v>
       </c>
@@ -14568,12 +14985,13 @@
         <v>1978</v>
       </c>
       <c r="AA192" s="40"/>
-      <c r="AB192" s="41" t="s">
+      <c r="AB192" s="39"/>
+      <c r="AC192" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="AC192" s="41"/>
-    </row>
-    <row r="193" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD192" s="41"/>
+    </row>
+    <row r="193" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B193" s="70" t="s">
         <v>38</v>
       </c>
@@ -14630,14 +15048,15 @@
         <v>1980</v>
       </c>
       <c r="AA193" s="40"/>
-      <c r="AB193" s="41" t="s">
+      <c r="AB193" s="39"/>
+      <c r="AC193" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="AC193" s="41" t="s">
+      <c r="AD193" s="41" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="194" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B194" s="70" t="s">
         <v>38</v>
       </c>
@@ -14694,14 +15113,15 @@
         <v>1980</v>
       </c>
       <c r="AA194" s="40"/>
-      <c r="AB194" s="41" t="s">
+      <c r="AB194" s="39"/>
+      <c r="AC194" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="AC194" s="41" t="s">
+      <c r="AD194" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="195" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B195" s="70" t="s">
         <v>38</v>
       </c>
@@ -14760,14 +15180,15 @@
       <c r="AA195" s="40">
         <v>1980</v>
       </c>
-      <c r="AB195" s="41" t="s">
+      <c r="AB195" s="39"/>
+      <c r="AC195" s="41" t="s">
         <v>620</v>
       </c>
-      <c r="AC195" s="41" t="s">
+      <c r="AD195" s="41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="196" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B196" s="70" t="s">
         <v>38</v>
       </c>
@@ -14826,14 +15247,15 @@
       <c r="AA196" s="40">
         <v>1980</v>
       </c>
-      <c r="AB196" s="41" t="s">
+      <c r="AB196" s="39"/>
+      <c r="AC196" s="41" t="s">
         <v>620</v>
       </c>
-      <c r="AC196" s="41" t="s">
+      <c r="AD196" s="41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="197" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B197" s="70" t="s">
         <v>38</v>
       </c>
@@ -14892,14 +15314,15 @@
       <c r="AA197" s="40">
         <v>1980</v>
       </c>
-      <c r="AB197" s="41" t="s">
+      <c r="AB197" s="39"/>
+      <c r="AC197" s="41" t="s">
         <v>620</v>
       </c>
-      <c r="AC197" s="41" t="s">
+      <c r="AD197" s="41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="198" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B198" s="70" t="s">
         <v>38</v>
       </c>
@@ -14958,14 +15381,15 @@
       <c r="AA198" s="40">
         <v>1980</v>
       </c>
-      <c r="AB198" s="41" t="s">
+      <c r="AB198" s="39"/>
+      <c r="AC198" s="41" t="s">
         <v>620</v>
       </c>
-      <c r="AC198" s="41" t="s">
+      <c r="AD198" s="41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="199" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B199" s="70" t="s">
         <v>41</v>
       </c>
@@ -15020,12 +15444,13 @@
         <v>1976</v>
       </c>
       <c r="AA199" s="40"/>
-      <c r="AB199" s="41" t="s">
+      <c r="AB199" s="39"/>
+      <c r="AC199" s="41" t="s">
         <v>587</v>
       </c>
-      <c r="AC199" s="41"/>
-    </row>
-    <row r="200" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD199" s="41"/>
+    </row>
+    <row r="200" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B200" s="70" t="s">
         <v>41</v>
       </c>
@@ -15059,7 +15484,6 @@
       <c r="N200" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="O200" s="85"/>
       <c r="P200" s="35"/>
       <c r="Q200" s="35"/>
       <c r="R200" s="35"/>
@@ -15080,12 +15504,13 @@
         <v>1976</v>
       </c>
       <c r="AA200" s="40"/>
-      <c r="AB200" s="41" t="s">
+      <c r="AB200" s="39"/>
+      <c r="AC200" s="41" t="s">
         <v>587</v>
       </c>
-      <c r="AC200" s="41"/>
-    </row>
-    <row r="201" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD200" s="41"/>
+    </row>
+    <row r="201" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B201" s="70" t="s">
         <v>128</v>
       </c>
@@ -15140,12 +15565,13 @@
         <v>1976</v>
       </c>
       <c r="AA201" s="40"/>
-      <c r="AB201" s="41" t="s">
+      <c r="AB201" s="39"/>
+      <c r="AC201" s="41" t="s">
         <v>587</v>
       </c>
-      <c r="AC201" s="41"/>
-    </row>
-    <row r="202" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD201" s="41"/>
+    </row>
+    <row r="202" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B202" s="70" t="s">
         <v>41</v>
       </c>
@@ -15200,12 +15626,13 @@
         <v>1976</v>
       </c>
       <c r="AA202" s="40"/>
-      <c r="AB202" s="41" t="s">
+      <c r="AB202" s="39"/>
+      <c r="AC202" s="41" t="s">
         <v>587</v>
       </c>
-      <c r="AC202" s="41"/>
-    </row>
-    <row r="203" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD202" s="41"/>
+    </row>
+    <row r="203" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B203" s="70" t="s">
         <v>41</v>
       </c>
@@ -15262,12 +15689,13 @@
         <v>1976</v>
       </c>
       <c r="AA203" s="40"/>
-      <c r="AB203" s="41" t="s">
+      <c r="AB203" s="39"/>
+      <c r="AC203" s="41" t="s">
         <v>587</v>
       </c>
-      <c r="AC203" s="41"/>
-    </row>
-    <row r="204" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD203" s="41"/>
+    </row>
+    <row r="204" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B204" s="70" t="s">
         <v>41</v>
       </c>
@@ -15324,12 +15752,13 @@
         <v>1976</v>
       </c>
       <c r="AA204" s="40"/>
-      <c r="AB204" s="41" t="s">
+      <c r="AB204" s="39"/>
+      <c r="AC204" s="41" t="s">
         <v>587</v>
       </c>
-      <c r="AC204" s="41"/>
-    </row>
-    <row r="205" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD204" s="41"/>
+    </row>
+    <row r="205" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B205" s="70" t="s">
         <v>41</v>
       </c>
@@ -15384,12 +15813,13 @@
         <v>1976</v>
       </c>
       <c r="AA205" s="40"/>
-      <c r="AB205" s="41" t="s">
+      <c r="AB205" s="39"/>
+      <c r="AC205" s="41" t="s">
         <v>588</v>
       </c>
-      <c r="AC205" s="41"/>
-    </row>
-    <row r="206" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD205" s="41"/>
+    </row>
+    <row r="206" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B206" s="70" t="s">
         <v>41</v>
       </c>
@@ -15444,14 +15874,15 @@
         <v>1976</v>
       </c>
       <c r="AA206" s="40"/>
-      <c r="AB206" s="41" t="s">
+      <c r="AB206" s="39"/>
+      <c r="AC206" s="41" t="s">
         <v>588</v>
       </c>
-      <c r="AC206" s="41" t="s">
+      <c r="AD206" s="41" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="207" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B207" s="70" t="s">
         <v>41</v>
       </c>
@@ -15506,14 +15937,15 @@
         <v>1976</v>
       </c>
       <c r="AA207" s="40"/>
-      <c r="AB207" s="41" t="s">
+      <c r="AB207" s="39"/>
+      <c r="AC207" s="41" t="s">
         <v>588</v>
       </c>
-      <c r="AC207" s="41" t="s">
+      <c r="AD207" s="41" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="208" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B208" s="70" t="s">
         <v>41</v>
       </c>
@@ -15568,12 +16000,13 @@
         <v>1976</v>
       </c>
       <c r="AA208" s="40"/>
-      <c r="AB208" s="41" t="s">
+      <c r="AB208" s="39"/>
+      <c r="AC208" s="41" t="s">
         <v>588</v>
       </c>
-      <c r="AC208" s="41"/>
-    </row>
-    <row r="209" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD208" s="41"/>
+    </row>
+    <row r="209" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B209" s="70" t="s">
         <v>41</v>
       </c>
@@ -15628,12 +16061,13 @@
         <v>1976</v>
       </c>
       <c r="AA209" s="40"/>
-      <c r="AB209" s="41" t="s">
+      <c r="AB209" s="39"/>
+      <c r="AC209" s="41" t="s">
         <v>588</v>
       </c>
-      <c r="AC209" s="41"/>
-    </row>
-    <row r="210" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD209" s="41"/>
+    </row>
+    <row r="210" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B210" s="70" t="s">
         <v>41</v>
       </c>
@@ -15688,14 +16122,15 @@
         <v>1976</v>
       </c>
       <c r="AA210" s="40"/>
-      <c r="AB210" s="41" t="s">
+      <c r="AB210" s="39"/>
+      <c r="AC210" s="41" t="s">
         <v>588</v>
       </c>
-      <c r="AC210" s="41" t="s">
+      <c r="AD210" s="41" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="211" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B211" s="70" t="s">
         <v>41</v>
       </c>
@@ -15750,14 +16185,15 @@
         <v>1976</v>
       </c>
       <c r="AA211" s="40"/>
-      <c r="AB211" s="41" t="s">
+      <c r="AB211" s="39"/>
+      <c r="AC211" s="41" t="s">
         <v>588</v>
       </c>
-      <c r="AC211" s="41" t="s">
+      <c r="AD211" s="41" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="212" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B212" s="70" t="s">
         <v>41</v>
       </c>
@@ -15812,12 +16248,13 @@
         <v>1976</v>
       </c>
       <c r="AA212" s="40"/>
-      <c r="AB212" s="41" t="s">
+      <c r="AB212" s="39"/>
+      <c r="AC212" s="41" t="s">
         <v>588</v>
       </c>
-      <c r="AC212" s="41"/>
-    </row>
-    <row r="213" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD212" s="41"/>
+    </row>
+    <row r="213" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B213" s="70" t="s">
         <v>41</v>
       </c>
@@ -15874,12 +16311,13 @@
         <v>1976</v>
       </c>
       <c r="AA213" s="40"/>
-      <c r="AB213" s="41" t="s">
+      <c r="AB213" s="39"/>
+      <c r="AC213" s="41" t="s">
         <v>588</v>
       </c>
-      <c r="AC213" s="41"/>
-    </row>
-    <row r="214" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD213" s="41"/>
+    </row>
+    <row r="214" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B214" s="70" t="s">
         <v>41</v>
       </c>
@@ -15936,12 +16374,13 @@
         <v>1976</v>
       </c>
       <c r="AA214" s="40"/>
-      <c r="AB214" s="41" t="s">
+      <c r="AB214" s="39"/>
+      <c r="AC214" s="41" t="s">
         <v>588</v>
       </c>
-      <c r="AC214" s="41"/>
-    </row>
-    <row r="215" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD214" s="41"/>
+    </row>
+    <row r="215" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B215" s="70" t="s">
         <v>41</v>
       </c>
@@ -15998,12 +16437,13 @@
         <v>1976</v>
       </c>
       <c r="AA215" s="40"/>
-      <c r="AB215" s="41" t="s">
+      <c r="AB215" s="39"/>
+      <c r="AC215" s="41" t="s">
         <v>588</v>
       </c>
-      <c r="AC215" s="41"/>
-    </row>
-    <row r="216" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD215" s="41"/>
+    </row>
+    <row r="216" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B216" s="70" t="s">
         <v>41</v>
       </c>
@@ -16060,14 +16500,15 @@
       <c r="AA216" s="40">
         <v>1976</v>
       </c>
-      <c r="AB216" s="46" t="s">
+      <c r="AB216" s="39"/>
+      <c r="AC216" s="46" t="s">
         <v>576</v>
       </c>
-      <c r="AC216" s="41" t="s">
+      <c r="AD216" s="41" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="217" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B217" s="70" t="s">
         <v>41</v>
       </c>
@@ -16124,12 +16565,13 @@
       <c r="AA217" s="40">
         <v>1976</v>
       </c>
-      <c r="AB217" s="46" t="s">
+      <c r="AB217" s="39"/>
+      <c r="AC217" s="46" t="s">
         <v>576</v>
       </c>
-      <c r="AC217" s="41"/>
-    </row>
-    <row r="218" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD217" s="41"/>
+    </row>
+    <row r="218" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B218" s="70" t="s">
         <v>41</v>
       </c>
@@ -16186,12 +16628,13 @@
       <c r="AA218" s="40">
         <v>1976</v>
       </c>
-      <c r="AB218" s="46" t="s">
+      <c r="AB218" s="39"/>
+      <c r="AC218" s="46" t="s">
         <v>576</v>
       </c>
-      <c r="AC218" s="41"/>
-    </row>
-    <row r="219" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD218" s="41"/>
+    </row>
+    <row r="219" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B219" s="70" t="s">
         <v>41</v>
       </c>
@@ -16250,12 +16693,13 @@
       <c r="AA219" s="40">
         <v>1976</v>
       </c>
-      <c r="AB219" s="46" t="s">
+      <c r="AB219" s="39"/>
+      <c r="AC219" s="46" t="s">
         <v>576</v>
       </c>
-      <c r="AC219" s="41"/>
-    </row>
-    <row r="220" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD219" s="41"/>
+    </row>
+    <row r="220" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B220" s="70" t="s">
         <v>42</v>
       </c>
@@ -16310,12 +16754,13 @@
         <v>1976</v>
       </c>
       <c r="AA220" s="40"/>
-      <c r="AB220" s="46" t="s">
+      <c r="AB220" s="39"/>
+      <c r="AC220" s="46" t="s">
         <v>621</v>
       </c>
-      <c r="AC220" s="41"/>
-    </row>
-    <row r="221" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD220" s="41"/>
+    </row>
+    <row r="221" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B221" s="70" t="s">
         <v>42</v>
       </c>
@@ -16372,14 +16817,15 @@
         <v>1976</v>
       </c>
       <c r="AA221" s="40"/>
-      <c r="AB221" s="46" t="s">
+      <c r="AB221" s="39"/>
+      <c r="AC221" s="46" t="s">
         <v>621</v>
       </c>
-      <c r="AC221" s="41" t="s">
+      <c r="AD221" s="41" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="222" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B222" s="70" t="s">
         <v>43</v>
       </c>
@@ -16430,12 +16876,13 @@
         <v>1976</v>
       </c>
       <c r="AA222" s="40"/>
-      <c r="AB222" s="46" t="s">
+      <c r="AB222" s="39"/>
+      <c r="AC222" s="46" t="s">
         <v>589</v>
       </c>
-      <c r="AC222" s="41"/>
-    </row>
-    <row r="223" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD222" s="41"/>
+    </row>
+    <row r="223" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B223" s="70" t="s">
         <v>43</v>
       </c>
@@ -16486,14 +16933,15 @@
         <v>1976</v>
       </c>
       <c r="AA223" s="40"/>
-      <c r="AB223" s="79" t="s">
+      <c r="AB223" s="39"/>
+      <c r="AC223" s="79" t="s">
         <v>589</v>
       </c>
-      <c r="AC223" s="46" t="s">
+      <c r="AD223" s="46" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="224" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B224" s="70" t="s">
         <v>43</v>
       </c>
@@ -16546,14 +16994,15 @@
         <v>1991</v>
       </c>
       <c r="AA224" s="40"/>
-      <c r="AB224" s="46" t="s">
+      <c r="AB224" s="39"/>
+      <c r="AC224" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AC224" s="41" t="s">
+      <c r="AD224" s="41" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="225" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B225" s="70" t="s">
         <v>43</v>
       </c>
@@ -16602,12 +17051,13 @@
       <c r="AA225" s="40">
         <v>2003</v>
       </c>
-      <c r="AB225" s="46" t="s">
+      <c r="AB225" s="39"/>
+      <c r="AC225" s="46" t="s">
         <v>433</v>
       </c>
-      <c r="AC225" s="41"/>
-    </row>
-    <row r="226" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD225" s="41"/>
+    </row>
+    <row r="226" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B226" s="70" t="s">
         <v>43</v>
       </c>
@@ -16656,12 +17106,13 @@
         <v>2004</v>
       </c>
       <c r="AA226" s="40"/>
-      <c r="AB226" s="46" t="s">
+      <c r="AB226" s="39"/>
+      <c r="AC226" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="AC226" s="41"/>
-    </row>
-    <row r="227" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD226" s="41"/>
+    </row>
+    <row r="227" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B227" s="70" t="s">
         <v>43</v>
       </c>
@@ -16710,12 +17161,13 @@
         <v>2004</v>
       </c>
       <c r="AA227" s="40"/>
-      <c r="AB227" s="46" t="s">
+      <c r="AB227" s="39"/>
+      <c r="AC227" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="AC227" s="41"/>
-    </row>
-    <row r="228" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD227" s="41"/>
+    </row>
+    <row r="228" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B228" s="70" t="s">
         <v>43</v>
       </c>
@@ -16764,12 +17216,13 @@
         <v>2004</v>
       </c>
       <c r="AA228" s="40"/>
-      <c r="AB228" s="46" t="s">
+      <c r="AB228" s="39"/>
+      <c r="AC228" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="AC228" s="41"/>
-    </row>
-    <row r="229" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD228" s="41"/>
+    </row>
+    <row r="229" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B229" s="70" t="s">
         <v>43</v>
       </c>
@@ -16818,12 +17271,13 @@
         <v>2004</v>
       </c>
       <c r="AA229" s="40"/>
-      <c r="AB229" s="46" t="s">
+      <c r="AB229" s="39"/>
+      <c r="AC229" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="AC229" s="41"/>
-    </row>
-    <row r="230" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD229" s="41"/>
+    </row>
+    <row r="230" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B230" s="70" t="s">
         <v>43</v>
       </c>
@@ -16853,10 +17307,10 @@
       <c r="P230" s="35">
         <v>5</v>
       </c>
-      <c r="Q230" s="86">
+      <c r="Q230" s="84">
         <v>17833</v>
       </c>
-      <c r="R230" s="86">
+      <c r="R230" s="84">
         <v>2161</v>
       </c>
       <c r="S230" s="30"/>
@@ -16872,12 +17326,13 @@
         <v>2004</v>
       </c>
       <c r="AA230" s="40"/>
-      <c r="AB230" s="46" t="s">
+      <c r="AB230" s="39"/>
+      <c r="AC230" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="AC230" s="41"/>
-    </row>
-    <row r="231" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD230" s="41"/>
+    </row>
+    <row r="231" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B231" s="70" t="s">
         <v>43</v>
       </c>
@@ -16920,14 +17375,15 @@
         <v>1991</v>
       </c>
       <c r="AA231" s="40"/>
-      <c r="AB231" s="79" t="s">
+      <c r="AB231" s="39"/>
+      <c r="AC231" s="79" t="s">
         <v>472</v>
       </c>
-      <c r="AC231" s="46" t="s">
+      <c r="AD231" s="46" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="232" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B232" s="70" t="s">
         <v>43</v>
       </c>
@@ -16974,14 +17430,15 @@
         <v>1991</v>
       </c>
       <c r="AA232" s="40"/>
-      <c r="AB232" s="81" t="s">
+      <c r="AB232" s="39"/>
+      <c r="AC232" s="81" t="s">
         <v>471</v>
       </c>
-      <c r="AC232" s="46" t="s">
+      <c r="AD232" s="46" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="233" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B233" s="70" t="s">
         <v>43</v>
       </c>
@@ -17028,14 +17485,15 @@
         <v>1991</v>
       </c>
       <c r="AA233" s="40"/>
-      <c r="AB233" s="81" t="s">
+      <c r="AB233" s="39"/>
+      <c r="AC233" s="81" t="s">
         <v>471</v>
       </c>
-      <c r="AC233" s="46" t="s">
+      <c r="AD233" s="46" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="234" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B234" s="70" t="s">
         <v>43</v>
       </c>
@@ -17082,14 +17540,15 @@
         <v>1991</v>
       </c>
       <c r="AA234" s="40"/>
-      <c r="AB234" s="81" t="s">
+      <c r="AB234" s="39"/>
+      <c r="AC234" s="81" t="s">
         <v>471</v>
       </c>
-      <c r="AC234" s="46" t="s">
+      <c r="AD234" s="46" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="235" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B235" s="70" t="s">
         <v>43</v>
       </c>
@@ -17132,14 +17591,15 @@
         <v>1991</v>
       </c>
       <c r="AA235" s="40"/>
-      <c r="AB235" s="81" t="s">
+      <c r="AB235" s="39"/>
+      <c r="AC235" s="81" t="s">
         <v>471</v>
       </c>
-      <c r="AC235" s="46" t="s">
+      <c r="AD235" s="46" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="236" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B236" s="70" t="s">
         <v>43</v>
       </c>
@@ -17188,14 +17648,15 @@
       <c r="AA236" s="40">
         <v>1995</v>
       </c>
-      <c r="AB236" s="81" t="s">
+      <c r="AB236" s="39"/>
+      <c r="AC236" s="81" t="s">
         <v>471</v>
       </c>
-      <c r="AC236" s="46" t="s">
+      <c r="AD236" s="46" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="237" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B237" s="70" t="s">
         <v>43</v>
       </c>
@@ -17244,14 +17705,15 @@
       <c r="AA237" s="40">
         <v>2007</v>
       </c>
-      <c r="AB237" s="46" t="s">
+      <c r="AB237" s="39"/>
+      <c r="AC237" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="AC237" s="41" t="s">
+      <c r="AD237" s="41" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="238" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B238" s="70" t="s">
         <v>43</v>
       </c>
@@ -17298,12 +17760,13 @@
         <v>2008</v>
       </c>
       <c r="AA238" s="40"/>
-      <c r="AB238" s="46" t="s">
+      <c r="AB238" s="39"/>
+      <c r="AC238" s="46" t="s">
         <v>434</v>
       </c>
-      <c r="AC238" s="41"/>
-    </row>
-    <row r="239" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD238" s="41"/>
+    </row>
+    <row r="239" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B239" s="70" t="s">
         <v>43</v>
       </c>
@@ -17350,14 +17813,15 @@
       <c r="AA239" s="40">
         <v>2003</v>
       </c>
-      <c r="AB239" s="46" t="s">
+      <c r="AB239" s="39"/>
+      <c r="AC239" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="AC239" s="46" t="s">
+      <c r="AD239" s="46" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="240" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B240" s="70" t="s">
         <v>43</v>
       </c>
@@ -17406,12 +17870,13 @@
       <c r="AA240" s="40">
         <v>2015</v>
       </c>
-      <c r="AB240" s="46" t="s">
+      <c r="AB240" s="39"/>
+      <c r="AC240" s="46" t="s">
         <v>476</v>
       </c>
-      <c r="AC240" s="41"/>
-    </row>
-    <row r="241" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD240" s="41"/>
+    </row>
+    <row r="241" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B241" s="70" t="s">
         <v>43</v>
       </c>
@@ -17460,12 +17925,13 @@
       <c r="AA241" s="40">
         <v>2015</v>
       </c>
-      <c r="AB241" s="46" t="s">
+      <c r="AB241" s="39"/>
+      <c r="AC241" s="46" t="s">
         <v>476</v>
       </c>
-      <c r="AC241" s="41"/>
-    </row>
-    <row r="242" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD241" s="41"/>
+    </row>
+    <row r="242" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B242" s="70" t="s">
         <v>43</v>
       </c>
@@ -17514,12 +17980,13 @@
       <c r="AA242" s="40">
         <v>2015</v>
       </c>
-      <c r="AB242" s="46" t="s">
+      <c r="AB242" s="39"/>
+      <c r="AC242" s="46" t="s">
         <v>476</v>
       </c>
-      <c r="AC242" s="41"/>
-    </row>
-    <row r="243" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD242" s="41"/>
+    </row>
+    <row r="243" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B243" s="70" t="s">
         <v>43</v>
       </c>
@@ -17568,12 +18035,13 @@
       <c r="AA243" s="40">
         <v>2015</v>
       </c>
-      <c r="AB243" s="46" t="s">
+      <c r="AB243" s="39"/>
+      <c r="AC243" s="46" t="s">
         <v>476</v>
       </c>
-      <c r="AC243" s="41"/>
-    </row>
-    <row r="244" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD243" s="41"/>
+    </row>
+    <row r="244" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B244" s="70" t="s">
         <v>43</v>
       </c>
@@ -17622,12 +18090,13 @@
       <c r="AA244" s="40">
         <v>2015</v>
       </c>
-      <c r="AB244" s="46" t="s">
+      <c r="AB244" s="39"/>
+      <c r="AC244" s="46" t="s">
         <v>476</v>
       </c>
-      <c r="AC244" s="41"/>
-    </row>
-    <row r="245" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD244" s="41"/>
+    </row>
+    <row r="245" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B245" s="70" t="s">
         <v>43</v>
       </c>
@@ -17678,12 +18147,13 @@
       <c r="AA245" s="40">
         <v>2015</v>
       </c>
-      <c r="AB245" s="46" t="s">
+      <c r="AB245" s="39"/>
+      <c r="AC245" s="46" t="s">
         <v>476</v>
       </c>
-      <c r="AC245" s="41"/>
-    </row>
-    <row r="246" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD245" s="41"/>
+    </row>
+    <row r="246" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B246" s="70" t="s">
         <v>43</v>
       </c>
@@ -17730,12 +18200,13 @@
         <v>1979</v>
       </c>
       <c r="AA246" s="40"/>
-      <c r="AB246" s="46" t="s">
+      <c r="AB246" s="39"/>
+      <c r="AC246" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="AC246" s="41"/>
-    </row>
-    <row r="247" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD246" s="41"/>
+    </row>
+    <row r="247" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B247" s="70" t="s">
         <v>43</v>
       </c>
@@ -17784,12 +18255,13 @@
       <c r="AA247" s="40">
         <v>2014</v>
       </c>
-      <c r="AB247" s="46" t="s">
+      <c r="AB247" s="39"/>
+      <c r="AC247" s="46" t="s">
         <v>498</v>
       </c>
-      <c r="AC247" s="41"/>
-    </row>
-    <row r="248" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD247" s="41"/>
+    </row>
+    <row r="248" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B248" s="70" t="s">
         <v>43</v>
       </c>
@@ -17816,7 +18288,6 @@
       <c r="O248" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="P248" s="84"/>
       <c r="Q248" s="24">
         <v>19436</v>
       </c>
@@ -17840,12 +18311,13 @@
         <v>2017</v>
       </c>
       <c r="AA248" s="40"/>
-      <c r="AB248" s="46" t="s">
+      <c r="AB248" s="39"/>
+      <c r="AC248" s="46" t="s">
         <v>500</v>
       </c>
-      <c r="AC248" s="41"/>
-    </row>
-    <row r="249" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD248" s="41"/>
+    </row>
+    <row r="249" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B249" s="70" t="s">
         <v>43</v>
       </c>
@@ -17894,12 +18366,13 @@
         <v>2017</v>
       </c>
       <c r="AA249" s="40"/>
-      <c r="AB249" s="46" t="s">
+      <c r="AB249" s="39"/>
+      <c r="AC249" s="46" t="s">
         <v>500</v>
       </c>
-      <c r="AC249" s="41"/>
-    </row>
-    <row r="250" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD249" s="41"/>
+    </row>
+    <row r="250" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B250" s="70" t="s">
         <v>43</v>
       </c>
@@ -17948,12 +18421,13 @@
         <v>2017</v>
       </c>
       <c r="AA250" s="40"/>
-      <c r="AB250" s="46" t="s">
+      <c r="AB250" s="39"/>
+      <c r="AC250" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="AC250" s="41"/>
-    </row>
-    <row r="251" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD250" s="41"/>
+    </row>
+    <row r="251" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B251" s="70" t="s">
         <v>43</v>
       </c>
@@ -18004,12 +18478,13 @@
       <c r="AA251" s="40">
         <v>1995</v>
       </c>
-      <c r="AB251" s="46" t="s">
+      <c r="AB251" s="39"/>
+      <c r="AC251" s="46" t="s">
         <v>489</v>
       </c>
-      <c r="AC251" s="46"/>
-    </row>
-    <row r="252" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD251" s="46"/>
+    </row>
+    <row r="252" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B252" s="70" t="s">
         <v>43</v>
       </c>
@@ -18060,14 +18535,15 @@
       <c r="AA252" s="40">
         <v>2007</v>
       </c>
-      <c r="AB252" s="46" t="s">
+      <c r="AB252" s="39"/>
+      <c r="AC252" s="46" t="s">
         <v>471</v>
       </c>
-      <c r="AC252" s="46" t="s">
+      <c r="AD252" s="46" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="253" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B253" s="70" t="s">
         <v>43</v>
       </c>
@@ -18118,12 +18594,13 @@
       <c r="AA253" s="40">
         <v>2013</v>
       </c>
-      <c r="AB253" s="46" t="s">
+      <c r="AB253" s="39"/>
+      <c r="AC253" s="46" t="s">
         <v>496</v>
       </c>
-      <c r="AC253" s="41"/>
-    </row>
-    <row r="254" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD253" s="41"/>
+    </row>
+    <row r="254" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B254" s="70" t="s">
         <v>43</v>
       </c>
@@ -18176,12 +18653,13 @@
         <v>2014</v>
       </c>
       <c r="AA254" s="40"/>
-      <c r="AB254" s="46" t="s">
+      <c r="AB254" s="39"/>
+      <c r="AC254" s="46" t="s">
         <v>502</v>
       </c>
-      <c r="AC254" s="41"/>
-    </row>
-    <row r="255" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD254" s="41"/>
+    </row>
+    <row r="255" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B255" s="70" t="s">
         <v>43</v>
       </c>
@@ -18209,7 +18687,7 @@
         <v>427</v>
       </c>
       <c r="P255" s="35"/>
-      <c r="Q255" s="86"/>
+      <c r="Q255" s="84"/>
       <c r="R255" s="24">
         <v>2094</v>
       </c>
@@ -18228,12 +18706,13 @@
       <c r="AA255" s="40">
         <v>2014</v>
       </c>
-      <c r="AB255" s="46" t="s">
+      <c r="AB255" s="39"/>
+      <c r="AC255" s="46" t="s">
         <v>502</v>
       </c>
-      <c r="AC255" s="41"/>
-    </row>
-    <row r="256" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD255" s="41"/>
+    </row>
+    <row r="256" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B256" s="70" t="s">
         <v>43</v>
       </c>
@@ -18282,12 +18761,13 @@
         <v>2017</v>
       </c>
       <c r="AA256" s="40"/>
-      <c r="AB256" s="72" t="s">
+      <c r="AB256" s="39"/>
+      <c r="AC256" s="72" t="s">
         <v>499</v>
       </c>
-      <c r="AC256" s="41"/>
-    </row>
-    <row r="257" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD256" s="41"/>
+    </row>
+    <row r="257" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B257" s="70" t="s">
         <v>43</v>
       </c>
@@ -18336,12 +18816,13 @@
         <v>2017</v>
       </c>
       <c r="AA257" s="40"/>
-      <c r="AB257" s="73" t="s">
+      <c r="AB257" s="39"/>
+      <c r="AC257" s="73" t="s">
         <v>499</v>
       </c>
-      <c r="AC257" s="41"/>
-    </row>
-    <row r="258" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD257" s="41"/>
+    </row>
+    <row r="258" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B258" s="70" t="s">
         <v>43</v>
       </c>
@@ -18390,12 +18871,13 @@
         <v>2017</v>
       </c>
       <c r="AA258" s="40"/>
-      <c r="AB258" s="73" t="s">
+      <c r="AB258" s="39"/>
+      <c r="AC258" s="73" t="s">
         <v>499</v>
       </c>
-      <c r="AC258" s="41"/>
-    </row>
-    <row r="259" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD258" s="41"/>
+    </row>
+    <row r="259" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B259" s="70" t="s">
         <v>43</v>
       </c>
@@ -18440,14 +18922,15 @@
       <c r="AA259" s="40">
         <v>1995</v>
       </c>
-      <c r="AB259" s="72" t="s">
+      <c r="AB259" s="39"/>
+      <c r="AC259" s="72" t="s">
         <v>590</v>
       </c>
-      <c r="AC259" s="41" t="s">
+      <c r="AD259" s="41" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="260" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B260" s="70" t="s">
         <v>43</v>
       </c>
@@ -18476,7 +18959,7 @@
       </c>
       <c r="P260" s="35"/>
       <c r="Q260" s="35"/>
-      <c r="R260" s="86"/>
+      <c r="R260" s="84"/>
       <c r="S260" s="38"/>
       <c r="T260" s="35">
         <v>7.1</v>
@@ -18492,12 +18975,13 @@
       <c r="AA260" s="40">
         <v>2014</v>
       </c>
-      <c r="AB260" s="81" t="s">
+      <c r="AB260" s="39"/>
+      <c r="AC260" s="81" t="s">
         <v>552</v>
       </c>
-      <c r="AC260" s="41"/>
-    </row>
-    <row r="261" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD260" s="41"/>
+    </row>
+    <row r="261" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B261" s="70" t="s">
         <v>43</v>
       </c>
@@ -18544,12 +19028,13 @@
         <v>2017</v>
       </c>
       <c r="AA261" s="40"/>
-      <c r="AB261" s="72" t="s">
+      <c r="AB261" s="39"/>
+      <c r="AC261" s="72" t="s">
         <v>499</v>
       </c>
-      <c r="AC261" s="41"/>
-    </row>
-    <row r="262" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD261" s="41"/>
+    </row>
+    <row r="262" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B262" s="70" t="s">
         <v>43</v>
       </c>
@@ -18596,14 +19081,15 @@
         <v>2017</v>
       </c>
       <c r="AA262" s="40"/>
-      <c r="AB262" s="73" t="s">
+      <c r="AB262" s="39"/>
+      <c r="AC262" s="73" t="s">
         <v>499</v>
       </c>
-      <c r="AC262" s="46" t="s">
+      <c r="AD262" s="46" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="263" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B263" s="70" t="s">
         <v>43</v>
       </c>
@@ -18650,14 +19136,15 @@
         <v>2017</v>
       </c>
       <c r="AA263" s="40"/>
-      <c r="AB263" s="73" t="s">
+      <c r="AB263" s="39"/>
+      <c r="AC263" s="73" t="s">
         <v>499</v>
       </c>
-      <c r="AC263" s="46" t="s">
+      <c r="AD263" s="46" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="264" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B264" s="70" t="s">
         <v>43</v>
       </c>
@@ -18704,14 +19191,15 @@
         <v>2017</v>
       </c>
       <c r="AA264" s="40"/>
-      <c r="AB264" s="74" t="s">
+      <c r="AB264" s="39"/>
+      <c r="AC264" s="74" t="s">
         <v>499</v>
       </c>
-      <c r="AC264" s="46" t="s">
+      <c r="AD264" s="46" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="265" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B265" s="70" t="s">
         <v>45</v>
       </c>
@@ -18768,14 +19256,15 @@
         <v>1976</v>
       </c>
       <c r="AA265" s="40"/>
-      <c r="AB265" s="46" t="s">
+      <c r="AB265" s="39"/>
+      <c r="AC265" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="AC265" s="41" t="s">
+      <c r="AD265" s="41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="266" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B266" s="70" t="s">
         <v>48</v>
       </c>
@@ -18832,14 +19321,15 @@
         <v>1976</v>
       </c>
       <c r="AA266" s="40"/>
-      <c r="AB266" s="41" t="s">
+      <c r="AB266" s="39"/>
+      <c r="AC266" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="AC266" s="41" t="s">
+      <c r="AD266" s="41" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="267" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B267" s="70" t="s">
         <v>50</v>
       </c>
@@ -18855,8 +19345,12 @@
       <c r="J267" s="36"/>
       <c r="K267" s="35"/>
       <c r="L267" s="35"/>
-      <c r="M267" s="35"/>
-      <c r="N267" s="37"/>
+      <c r="M267" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N267" s="35" t="s">
+        <v>17</v>
+      </c>
       <c r="O267" s="34" t="s">
         <v>449</v>
       </c>
@@ -18864,7 +19358,7 @@
         <v>1</v>
       </c>
       <c r="Q267" s="35"/>
-      <c r="R267" s="86">
+      <c r="R267" s="84">
         <v>2324</v>
       </c>
       <c r="S267" s="38"/>
@@ -18880,12 +19374,13 @@
         <v>1983</v>
       </c>
       <c r="AA267" s="40"/>
-      <c r="AB267" s="41" t="s">
+      <c r="AB267" s="39"/>
+      <c r="AC267" s="41" t="s">
         <v>453</v>
       </c>
-      <c r="AC267" s="41"/>
-    </row>
-    <row r="268" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD267" s="41"/>
+    </row>
+    <row r="268" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B268" s="70" t="s">
         <v>50</v>
       </c>
@@ -18901,8 +19396,12 @@
       <c r="J268" s="36"/>
       <c r="K268" s="35"/>
       <c r="L268" s="35"/>
-      <c r="M268" s="35"/>
-      <c r="N268" s="37"/>
+      <c r="M268" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N268" s="35" t="s">
+        <v>17</v>
+      </c>
       <c r="O268" s="34" t="s">
         <v>449</v>
       </c>
@@ -18910,7 +19409,7 @@
         <v>2</v>
       </c>
       <c r="Q268" s="35"/>
-      <c r="R268" s="86">
+      <c r="R268" s="84">
         <v>2324</v>
       </c>
       <c r="S268" s="38"/>
@@ -18926,12 +19425,13 @@
         <v>1983</v>
       </c>
       <c r="AA268" s="40"/>
-      <c r="AB268" s="41" t="s">
+      <c r="AB268" s="39"/>
+      <c r="AC268" s="41" t="s">
         <v>453</v>
       </c>
-      <c r="AC268" s="41"/>
-    </row>
-    <row r="269" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD268" s="41"/>
+    </row>
+    <row r="269" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B269" s="70" t="s">
         <v>50</v>
       </c>
@@ -18947,8 +19447,12 @@
       <c r="J269" s="36"/>
       <c r="K269" s="35"/>
       <c r="L269" s="35"/>
-      <c r="M269" s="35"/>
-      <c r="N269" s="37"/>
+      <c r="M269" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N269" s="35" t="s">
+        <v>17</v>
+      </c>
       <c r="O269" s="34" t="s">
         <v>449</v>
       </c>
@@ -18956,7 +19460,7 @@
         <v>3</v>
       </c>
       <c r="Q269" s="35"/>
-      <c r="R269" s="86">
+      <c r="R269" s="84">
         <v>2324</v>
       </c>
       <c r="S269" s="38"/>
@@ -18972,12 +19476,13 @@
         <v>1983</v>
       </c>
       <c r="AA269" s="40"/>
-      <c r="AB269" s="41" t="s">
+      <c r="AB269" s="39"/>
+      <c r="AC269" s="41" t="s">
         <v>453</v>
       </c>
-      <c r="AC269" s="41"/>
-    </row>
-    <row r="270" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD269" s="41"/>
+    </row>
+    <row r="270" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B270" s="70" t="s">
         <v>50</v>
       </c>
@@ -18993,8 +19498,12 @@
       <c r="J270" s="36"/>
       <c r="K270" s="35"/>
       <c r="L270" s="35"/>
-      <c r="M270" s="35"/>
-      <c r="N270" s="37"/>
+      <c r="M270" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N270" s="35" t="s">
+        <v>17</v>
+      </c>
       <c r="O270" s="34" t="s">
         <v>449</v>
       </c>
@@ -19002,7 +19511,7 @@
         <v>4</v>
       </c>
       <c r="Q270" s="35"/>
-      <c r="R270" s="86">
+      <c r="R270" s="84">
         <v>2324</v>
       </c>
       <c r="S270" s="38"/>
@@ -19020,12 +19529,13 @@
         <v>1986</v>
       </c>
       <c r="AA270" s="40"/>
-      <c r="AB270" s="41" t="s">
+      <c r="AB270" s="39"/>
+      <c r="AC270" s="41" t="s">
         <v>451</v>
       </c>
-      <c r="AC270" s="41"/>
-    </row>
-    <row r="271" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD270" s="41"/>
+    </row>
+    <row r="271" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B271" s="70" t="s">
         <v>50</v>
       </c>
@@ -19041,8 +19551,12 @@
       <c r="J271" s="36"/>
       <c r="K271" s="35"/>
       <c r="L271" s="35"/>
-      <c r="M271" s="35"/>
-      <c r="N271" s="37"/>
+      <c r="M271" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N271" s="35" t="s">
+        <v>17</v>
+      </c>
       <c r="O271" s="34" t="s">
         <v>448</v>
       </c>
@@ -19050,7 +19564,7 @@
         <v>2</v>
       </c>
       <c r="Q271" s="35"/>
-      <c r="R271" s="86">
+      <c r="R271" s="84">
         <v>8224</v>
       </c>
       <c r="S271" s="38"/>
@@ -19068,12 +19582,13 @@
         <v>1986</v>
       </c>
       <c r="AA271" s="40"/>
-      <c r="AB271" s="41" t="s">
+      <c r="AB271" s="39"/>
+      <c r="AC271" s="41" t="s">
         <v>452</v>
       </c>
-      <c r="AC271" s="41"/>
-    </row>
-    <row r="272" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD271" s="41"/>
+    </row>
+    <row r="272" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B272" s="70" t="s">
         <v>50</v>
       </c>
@@ -19089,14 +19604,18 @@
       <c r="J272" s="36"/>
       <c r="K272" s="35"/>
       <c r="L272" s="35"/>
-      <c r="M272" s="35"/>
-      <c r="N272" s="37"/>
+      <c r="M272" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N272" s="35" t="s">
+        <v>17</v>
+      </c>
       <c r="O272" s="34" t="s">
         <v>455</v>
       </c>
       <c r="P272" s="35"/>
       <c r="Q272" s="35"/>
-      <c r="R272" s="86">
+      <c r="R272" s="84">
         <v>2341</v>
       </c>
       <c r="S272" s="38"/>
@@ -19114,12 +19633,13 @@
       <c r="AA272" s="40">
         <v>2005</v>
       </c>
-      <c r="AB272" s="41" t="s">
+      <c r="AB272" s="39"/>
+      <c r="AC272" s="41" t="s">
         <v>495</v>
       </c>
-      <c r="AC272" s="41"/>
-    </row>
-    <row r="273" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD272" s="41"/>
+    </row>
+    <row r="273" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B273" s="70" t="s">
         <v>50</v>
       </c>
@@ -19135,14 +19655,18 @@
       <c r="J273" s="36"/>
       <c r="K273" s="35"/>
       <c r="L273" s="35"/>
-      <c r="M273" s="35"/>
-      <c r="N273" s="37"/>
+      <c r="M273" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N273" s="35" t="s">
+        <v>17</v>
+      </c>
       <c r="O273" s="34" t="s">
         <v>455</v>
       </c>
       <c r="P273" s="35"/>
       <c r="Q273" s="35"/>
-      <c r="R273" s="86">
+      <c r="R273" s="84">
         <v>2341</v>
       </c>
       <c r="S273" s="38"/>
@@ -19160,12 +19684,13 @@
         <v>2006</v>
       </c>
       <c r="AA273" s="40"/>
-      <c r="AB273" s="41" t="s">
+      <c r="AB273" s="39"/>
+      <c r="AC273" s="41" t="s">
         <v>495</v>
       </c>
-      <c r="AC273" s="41"/>
-    </row>
-    <row r="274" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD273" s="41"/>
+    </row>
+    <row r="274" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B274" s="70" t="s">
         <v>50</v>
       </c>
@@ -19224,12 +19749,13 @@
       <c r="AA274" s="40">
         <v>1975</v>
       </c>
-      <c r="AB274" s="41" t="s">
+      <c r="AB274" s="39"/>
+      <c r="AC274" s="41" t="s">
         <v>494</v>
       </c>
-      <c r="AC274" s="41"/>
-    </row>
-    <row r="275" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD274" s="41"/>
+    </row>
+    <row r="275" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B275" s="70" t="s">
         <v>50</v>
       </c>
@@ -19286,12 +19812,13 @@
       <c r="AA275" s="40">
         <v>1975</v>
       </c>
-      <c r="AB275" s="41" t="s">
+      <c r="AB275" s="39"/>
+      <c r="AC275" s="41" t="s">
         <v>494</v>
       </c>
-      <c r="AC275" s="41"/>
-    </row>
-    <row r="276" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD275" s="41"/>
+    </row>
+    <row r="276" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B276" s="70" t="s">
         <v>50</v>
       </c>
@@ -19344,12 +19871,13 @@
         <v>1976</v>
       </c>
       <c r="AA276" s="40"/>
-      <c r="AB276" s="46" t="s">
+      <c r="AB276" s="39"/>
+      <c r="AC276" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="AC276" s="41"/>
-    </row>
-    <row r="277" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD276" s="41"/>
+    </row>
+    <row r="277" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B277" s="70" t="s">
         <v>50</v>
       </c>
@@ -19402,12 +19930,13 @@
         <v>1976</v>
       </c>
       <c r="AA277" s="40"/>
-      <c r="AB277" s="46" t="s">
+      <c r="AB277" s="39"/>
+      <c r="AC277" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="AC277" s="41"/>
-    </row>
-    <row r="278" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD277" s="41"/>
+    </row>
+    <row r="278" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B278" s="70" t="s">
         <v>50</v>
       </c>
@@ -19460,14 +19989,14 @@
         <v>1976</v>
       </c>
       <c r="AA278" s="40"/>
-      <c r="AB278" s="41" t="s">
+      <c r="AC278" s="41" t="s">
         <v>493</v>
       </c>
-      <c r="AC278" s="41" t="s">
+      <c r="AD278" s="41" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="279" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B279" s="70" t="s">
         <v>50</v>
       </c>
@@ -19520,14 +20049,14 @@
         <v>1976</v>
       </c>
       <c r="AA279" s="40"/>
-      <c r="AB279" s="33" t="s">
+      <c r="AC279" s="33" t="s">
         <v>493</v>
       </c>
-      <c r="AC279" s="41" t="s">
+      <c r="AD279" s="41" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="280" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B280" s="70" t="s">
         <v>50</v>
       </c>
@@ -19582,14 +20111,14 @@
       <c r="AA280" s="40">
         <v>2011</v>
       </c>
-      <c r="AB280" s="33" t="s">
+      <c r="AC280" s="33" t="s">
         <v>591</v>
       </c>
-      <c r="AC280" s="41" t="s">
+      <c r="AD280" s="41" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="281" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B281" s="70" t="s">
         <v>50</v>
       </c>
@@ -19642,14 +20171,14 @@
         <v>2011</v>
       </c>
       <c r="AA281" s="40"/>
-      <c r="AB281" s="33" t="s">
+      <c r="AC281" s="33" t="s">
         <v>591</v>
       </c>
-      <c r="AC281" s="33" t="s">
+      <c r="AD281" s="33" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="282" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B282" s="70" t="s">
         <v>50</v>
       </c>
@@ -19702,14 +20231,14 @@
         <v>2011</v>
       </c>
       <c r="AA282" s="40"/>
-      <c r="AB282" s="33" t="s">
+      <c r="AC282" s="33" t="s">
         <v>591</v>
       </c>
-      <c r="AC282" s="33" t="s">
+      <c r="AD282" s="33" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="283" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B283" s="70" t="s">
         <v>54</v>
       </c>
@@ -19766,12 +20295,13 @@
       <c r="AA283" s="40">
         <v>2018</v>
       </c>
-      <c r="AB283" s="46" t="s">
+      <c r="AB283" s="39"/>
+      <c r="AC283" s="46" t="s">
         <v>592</v>
       </c>
-      <c r="AC283" s="41"/>
-    </row>
-    <row r="284" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD283" s="41"/>
+    </row>
+    <row r="284" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B284" s="70" t="s">
         <v>54</v>
       </c>
@@ -19826,14 +20356,15 @@
         <v>2019</v>
       </c>
       <c r="AA284" s="40"/>
-      <c r="AB284" s="46" t="s">
+      <c r="AB284" s="39"/>
+      <c r="AC284" s="46" t="s">
         <v>592</v>
       </c>
-      <c r="AC284" s="41" t="s">
+      <c r="AD284" s="41" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="285" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B285" s="70" t="s">
         <v>54</v>
       </c>
@@ -19890,14 +20421,15 @@
       <c r="AA285" s="40">
         <v>2018</v>
       </c>
-      <c r="AB285" s="46" t="s">
+      <c r="AB285" s="39"/>
+      <c r="AC285" s="46" t="s">
         <v>592</v>
       </c>
-      <c r="AC285" s="41" t="s">
+      <c r="AD285" s="41" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="286" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="70" t="s">
         <v>52</v>
       </c>
@@ -19958,12 +20490,15 @@
       <c r="AA286" s="40">
         <v>1981</v>
       </c>
-      <c r="AB286" s="46" t="s">
+      <c r="AB286" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC286" s="46" t="s">
         <v>594</v>
       </c>
-      <c r="AC286" s="41"/>
-    </row>
-    <row r="287" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD286" s="41"/>
+    </row>
+    <row r="287" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="70" t="s">
         <v>52</v>
       </c>
@@ -20024,12 +20559,15 @@
       <c r="AA287" s="40">
         <v>1981</v>
       </c>
-      <c r="AB287" s="46" t="s">
+      <c r="AB287" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC287" s="46" t="s">
         <v>594</v>
       </c>
-      <c r="AC287" s="41"/>
-    </row>
-    <row r="288" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD287" s="41"/>
+    </row>
+    <row r="288" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B288" s="70" t="s">
         <v>52</v>
       </c>
@@ -20092,12 +20630,15 @@
       <c r="AA288" s="40">
         <v>1981</v>
       </c>
-      <c r="AB288" s="46" t="s">
+      <c r="AB288" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC288" s="46" t="s">
         <v>594</v>
       </c>
-      <c r="AC288" s="41"/>
-    </row>
-    <row r="289" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD288" s="41"/>
+    </row>
+    <row r="289" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B289" s="70" t="s">
         <v>52</v>
       </c>
@@ -20160,12 +20701,15 @@
       <c r="AA289" s="40">
         <v>1981</v>
       </c>
-      <c r="AB289" s="46" t="s">
+      <c r="AB289" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC289" s="46" t="s">
         <v>594</v>
       </c>
-      <c r="AC289" s="41"/>
-    </row>
-    <row r="290" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD289" s="41"/>
+    </row>
+    <row r="290" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B290" s="70" t="s">
         <v>52</v>
       </c>
@@ -20226,12 +20770,15 @@
       <c r="AA290" s="40">
         <v>1981</v>
       </c>
-      <c r="AB290" s="46" t="s">
+      <c r="AB290" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC290" s="46" t="s">
         <v>594</v>
       </c>
-      <c r="AC290" s="41"/>
-    </row>
-    <row r="291" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD290" s="41"/>
+    </row>
+    <row r="291" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B291" s="70" t="s">
         <v>52</v>
       </c>
@@ -20292,12 +20839,15 @@
       <c r="AA291" s="40">
         <v>1981</v>
       </c>
-      <c r="AB291" s="46" t="s">
+      <c r="AB291" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC291" s="46" t="s">
         <v>594</v>
       </c>
-      <c r="AC291" s="41"/>
-    </row>
-    <row r="292" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD291" s="41"/>
+    </row>
+    <row r="292" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B292" s="70" t="s">
         <v>52</v>
       </c>
@@ -20358,12 +20908,15 @@
       <c r="AA292" s="40">
         <v>1981</v>
       </c>
-      <c r="AB292" s="46" t="s">
+      <c r="AB292" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC292" s="46" t="s">
         <v>594</v>
       </c>
-      <c r="AC292" s="41"/>
-    </row>
-    <row r="293" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD292" s="41"/>
+    </row>
+    <row r="293" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B293" s="70" t="s">
         <v>52</v>
       </c>
@@ -20426,24 +20979,25 @@
       <c r="AA293" s="40">
         <v>2012</v>
       </c>
-      <c r="AB293" s="46" t="s">
+      <c r="AB293" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC293" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="AC293" s="41"/>
-    </row>
-    <row r="294" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD293" s="41"/>
+    </row>
+    <row r="294" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B294" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="C294" s="89" t="s">
+      <c r="C294" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="D294" s="85"/>
-      <c r="E294" s="85" t="s">
+      <c r="E294" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F294" s="85"/>
-      <c r="G294" s="90"/>
+      <c r="G294" s="88"/>
       <c r="H294" s="36">
         <v>0</v>
       </c>
@@ -20490,12 +21044,15 @@
       <c r="AA294" s="40">
         <v>2012</v>
       </c>
-      <c r="AB294" s="46" t="s">
+      <c r="AB294" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC294" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="AC294" s="41"/>
-    </row>
-    <row r="295" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD294" s="41"/>
+    </row>
+    <row r="295" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B295" s="70" t="s">
         <v>52</v>
       </c>
@@ -20554,16 +21111,19 @@
       <c r="AA295" s="40">
         <v>2012</v>
       </c>
-      <c r="AB295" s="46" t="s">
+      <c r="AB295" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC295" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="AC295" s="41"/>
-    </row>
-    <row r="296" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD295" s="41"/>
+    </row>
+    <row r="296" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B296" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="C296" s="91" t="s">
+      <c r="C296" s="89" t="s">
         <v>406</v>
       </c>
       <c r="D296" s="55"/>
@@ -20618,24 +21178,25 @@
       <c r="AA296" s="40">
         <v>2012</v>
       </c>
-      <c r="AB296" s="46" t="s">
+      <c r="AB296" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC296" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="AC296" s="41"/>
-    </row>
-    <row r="297" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD296" s="41"/>
+    </row>
+    <row r="297" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B297" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="C297" s="89" t="s">
+      <c r="C297" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="D297" s="85"/>
-      <c r="E297" s="85" t="s">
+      <c r="E297" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F297" s="85"/>
-      <c r="G297" s="90"/>
+      <c r="G297" s="88"/>
       <c r="H297" s="36">
         <v>0</v>
       </c>
@@ -20682,16 +21243,19 @@
       <c r="AA297" s="40">
         <v>2012</v>
       </c>
-      <c r="AB297" s="46" t="s">
+      <c r="AB297" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC297" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="AC297" s="41"/>
-    </row>
-    <row r="298" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD297" s="41"/>
+    </row>
+    <row r="298" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B298" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="C298" s="91" t="s">
+      <c r="C298" s="89" t="s">
         <v>172</v>
       </c>
       <c r="D298" s="55"/>
@@ -20746,18 +21310,21 @@
       <c r="AA298" s="40">
         <v>2012</v>
       </c>
-      <c r="AB298" s="46" t="s">
+      <c r="AB298" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC298" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="AC298" s="41" t="s">
+      <c r="AD298" s="41" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="299" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B299" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="C299" s="91" t="s">
+      <c r="C299" s="89" t="s">
         <v>172</v>
       </c>
       <c r="D299" s="55"/>
@@ -20812,14 +21379,17 @@
       <c r="AA299" s="40">
         <v>2012</v>
       </c>
-      <c r="AB299" s="46" t="s">
+      <c r="AB299" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC299" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="AC299" s="41" t="s">
+      <c r="AD299" s="41" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="300" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B300" s="70" t="s">
         <v>52</v>
       </c>
@@ -20876,14 +21446,17 @@
         <v>2013</v>
       </c>
       <c r="AA300" s="40"/>
-      <c r="AB300" s="41" t="s">
+      <c r="AB300" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC300" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="AC300" s="41" t="s">
+      <c r="AD300" s="41" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="301" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B301" s="70" t="s">
         <v>55</v>
       </c>
@@ -20940,12 +21513,15 @@
       <c r="AA301" s="40">
         <v>1977</v>
       </c>
-      <c r="AB301" s="41" t="s">
+      <c r="AB301" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC301" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC301" s="41"/>
-    </row>
-    <row r="302" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD301" s="41"/>
+    </row>
+    <row r="302" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B302" s="70" t="s">
         <v>55</v>
       </c>
@@ -21004,12 +21580,15 @@
       <c r="AA302" s="40">
         <v>1977</v>
       </c>
-      <c r="AB302" s="41" t="s">
+      <c r="AB302" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC302" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC302" s="41"/>
-    </row>
-    <row r="303" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD302" s="41"/>
+    </row>
+    <row r="303" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B303" s="70" t="s">
         <v>55</v>
       </c>
@@ -21066,12 +21645,15 @@
       <c r="AA303" s="40">
         <v>1977</v>
       </c>
-      <c r="AB303" s="41" t="s">
+      <c r="AB303" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC303" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC303" s="41"/>
-    </row>
-    <row r="304" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD303" s="41"/>
+    </row>
+    <row r="304" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B304" s="70" t="s">
         <v>55</v>
       </c>
@@ -21128,12 +21710,15 @@
       <c r="AA304" s="40">
         <v>1977</v>
       </c>
-      <c r="AB304" s="41" t="s">
+      <c r="AB304" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC304" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC304" s="41"/>
-    </row>
-    <row r="305" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD304" s="41"/>
+    </row>
+    <row r="305" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B305" s="70" t="s">
         <v>55</v>
       </c>
@@ -21190,12 +21775,15 @@
       <c r="AA305" s="40">
         <v>1977</v>
       </c>
-      <c r="AB305" s="41" t="s">
+      <c r="AB305" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC305" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC305" s="41"/>
-    </row>
-    <row r="306" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD305" s="41"/>
+    </row>
+    <row r="306" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B306" s="70" t="s">
         <v>55</v>
       </c>
@@ -21252,12 +21840,15 @@
       <c r="AA306" s="40">
         <v>1983</v>
       </c>
-      <c r="AB306" s="41" t="s">
+      <c r="AB306" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC306" s="41" t="s">
         <v>603</v>
       </c>
-      <c r="AC306" s="41"/>
-    </row>
-    <row r="307" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD306" s="41"/>
+    </row>
+    <row r="307" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B307" s="70" t="s">
         <v>55</v>
       </c>
@@ -21314,12 +21905,15 @@
       <c r="AA307" s="40">
         <v>1983</v>
       </c>
-      <c r="AB307" s="41" t="s">
+      <c r="AB307" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC307" s="41" t="s">
         <v>604</v>
       </c>
-      <c r="AC307" s="41"/>
-    </row>
-    <row r="308" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD307" s="41"/>
+    </row>
+    <row r="308" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B308" s="70" t="s">
         <v>55</v>
       </c>
@@ -21378,12 +21972,15 @@
       <c r="AA308" s="40">
         <v>1983</v>
       </c>
-      <c r="AB308" s="41" t="s">
+      <c r="AB308" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC308" s="41" t="s">
         <v>604</v>
       </c>
-      <c r="AC308" s="41"/>
-    </row>
-    <row r="309" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD308" s="41"/>
+    </row>
+    <row r="309" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B309" s="70" t="s">
         <v>55</v>
       </c>
@@ -21438,14 +22035,17 @@
         <v>1982</v>
       </c>
       <c r="AA309" s="40"/>
-      <c r="AB309" s="41" t="s">
+      <c r="AB309" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC309" s="41" t="s">
         <v>606</v>
       </c>
-      <c r="AC309" s="41" t="s">
+      <c r="AD309" s="41" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="310" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B310" s="70" t="s">
         <v>55</v>
       </c>
@@ -21500,14 +22100,17 @@
         <v>1985</v>
       </c>
       <c r="AA310" s="40"/>
-      <c r="AB310" s="41" t="s">
+      <c r="AB310" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC310" s="41" t="s">
         <v>606</v>
       </c>
-      <c r="AC310" s="41" t="s">
+      <c r="AD310" s="41" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="311" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B311" s="70" t="s">
         <v>55</v>
       </c>
@@ -21562,12 +22165,15 @@
         <v>1983</v>
       </c>
       <c r="AA311" s="40"/>
-      <c r="AB311" s="41" t="s">
+      <c r="AB311" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC311" s="41" t="s">
         <v>605</v>
       </c>
-      <c r="AC311" s="41"/>
-    </row>
-    <row r="312" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD311" s="41"/>
+    </row>
+    <row r="312" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B312" s="70" t="s">
         <v>55</v>
       </c>
@@ -21622,12 +22228,15 @@
         <v>1983</v>
       </c>
       <c r="AA312" s="40"/>
-      <c r="AB312" s="41" t="s">
+      <c r="AB312" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC312" s="41" t="s">
         <v>605</v>
       </c>
-      <c r="AC312" s="41"/>
-    </row>
-    <row r="313" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD312" s="41"/>
+    </row>
+    <row r="313" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B313" s="70" t="s">
         <v>55</v>
       </c>
@@ -21684,12 +22293,15 @@
         <v>1983</v>
       </c>
       <c r="AA313" s="40"/>
-      <c r="AB313" s="41" t="s">
+      <c r="AB313" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC313" s="41" t="s">
         <v>605</v>
       </c>
-      <c r="AC313" s="41"/>
-    </row>
-    <row r="314" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD313" s="41"/>
+    </row>
+    <row r="314" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B314" s="70" t="s">
         <v>57</v>
       </c>
@@ -21742,12 +22354,13 @@
         <v>1976</v>
       </c>
       <c r="AA314" s="40"/>
-      <c r="AB314" s="46" t="s">
+      <c r="AB314" s="39"/>
+      <c r="AC314" s="46" t="s">
         <v>595</v>
       </c>
-      <c r="AC314" s="41"/>
-    </row>
-    <row r="315" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD314" s="41"/>
+    </row>
+    <row r="315" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B315" s="70" t="s">
         <v>57</v>
       </c>
@@ -21800,12 +22413,13 @@
         <v>1976</v>
       </c>
       <c r="AA315" s="40"/>
-      <c r="AB315" s="46" t="s">
+      <c r="AB315" s="39"/>
+      <c r="AC315" s="46" t="s">
         <v>595</v>
       </c>
-      <c r="AC315" s="41"/>
-    </row>
-    <row r="316" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD315" s="41"/>
+    </row>
+    <row r="316" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B316" s="70" t="s">
         <v>57</v>
       </c>
@@ -21860,12 +22474,13 @@
         <v>1976</v>
       </c>
       <c r="AA316" s="40"/>
-      <c r="AB316" s="46" t="s">
+      <c r="AB316" s="39"/>
+      <c r="AC316" s="46" t="s">
         <v>595</v>
       </c>
-      <c r="AC316" s="41"/>
-    </row>
-    <row r="317" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD316" s="41"/>
+    </row>
+    <row r="317" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B317" s="70" t="s">
         <v>57</v>
       </c>
@@ -21920,12 +22535,13 @@
         <v>1976</v>
       </c>
       <c r="AA317" s="40"/>
-      <c r="AB317" s="46" t="s">
+      <c r="AB317" s="39"/>
+      <c r="AC317" s="46" t="s">
         <v>595</v>
       </c>
-      <c r="AC317" s="41"/>
-    </row>
-    <row r="318" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD317" s="41"/>
+    </row>
+    <row r="318" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B318" s="70" t="s">
         <v>57</v>
       </c>
@@ -21980,12 +22596,13 @@
         <v>1976</v>
       </c>
       <c r="AA318" s="40"/>
-      <c r="AB318" s="46" t="s">
+      <c r="AB318" s="39"/>
+      <c r="AC318" s="46" t="s">
         <v>595</v>
       </c>
-      <c r="AC318" s="41"/>
-    </row>
-    <row r="319" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD318" s="41"/>
+    </row>
+    <row r="319" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B319" s="70" t="s">
         <v>58</v>
       </c>
@@ -22040,14 +22657,15 @@
         <v>2009</v>
       </c>
       <c r="AA319" s="40"/>
-      <c r="AB319" s="41" t="s">
+      <c r="AB319" s="39"/>
+      <c r="AC319" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="AC319" s="41" t="s">
+      <c r="AD319" s="41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="320" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B320" s="70" t="s">
         <v>58</v>
       </c>
@@ -22102,12 +22720,13 @@
         <v>2013</v>
       </c>
       <c r="AA320" s="40"/>
-      <c r="AB320" s="41" t="s">
+      <c r="AB320" s="39"/>
+      <c r="AC320" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="AC320" s="41"/>
-    </row>
-    <row r="321" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD320" s="41"/>
+    </row>
+    <row r="321" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B321" s="70" t="s">
         <v>58</v>
       </c>
@@ -22162,12 +22781,13 @@
         <v>2009</v>
       </c>
       <c r="AA321" s="40"/>
-      <c r="AB321" s="41" t="s">
+      <c r="AB321" s="39"/>
+      <c r="AC321" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="AC321" s="41"/>
-    </row>
-    <row r="322" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD321" s="41"/>
+    </row>
+    <row r="322" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B322" s="70" t="s">
         <v>58</v>
       </c>
@@ -22222,12 +22842,13 @@
         <v>2013</v>
       </c>
       <c r="AA322" s="40"/>
-      <c r="AB322" s="41" t="s">
+      <c r="AB322" s="39"/>
+      <c r="AC322" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="AC322" s="41"/>
-    </row>
-    <row r="323" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD322" s="41"/>
+    </row>
+    <row r="323" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B323" s="70" t="s">
         <v>58</v>
       </c>
@@ -22282,14 +22903,15 @@
         <v>1976</v>
       </c>
       <c r="AA323" s="40"/>
-      <c r="AB323" s="41" t="s">
+      <c r="AB323" s="39"/>
+      <c r="AC323" s="41" t="s">
         <v>596</v>
       </c>
-      <c r="AC323" s="41" t="s">
+      <c r="AD323" s="41" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="324" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B324" s="70" t="s">
         <v>58</v>
       </c>
@@ -22344,14 +22966,15 @@
         <v>1976</v>
       </c>
       <c r="AA324" s="40"/>
-      <c r="AB324" s="41" t="s">
+      <c r="AB324" s="39"/>
+      <c r="AC324" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC324" s="41" t="s">
+      <c r="AD324" s="41" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="325" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B325" s="70" t="s">
         <v>63</v>
       </c>
@@ -22406,14 +23029,15 @@
         <v>1976</v>
       </c>
       <c r="AA325" s="40"/>
-      <c r="AB325" s="41" t="s">
+      <c r="AB325" s="39"/>
+      <c r="AC325" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="AC325" s="41" t="s">
+      <c r="AD325" s="41" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="326" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B326" s="70" t="s">
         <v>65</v>
       </c>
@@ -22470,14 +23094,15 @@
       <c r="AA326" s="40">
         <v>1992</v>
       </c>
-      <c r="AB326" s="41" t="s">
+      <c r="AB326" s="39"/>
+      <c r="AC326" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC326" s="41" t="s">
+      <c r="AD326" s="41" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="327" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B327" s="70" t="s">
         <v>65</v>
       </c>
@@ -22532,12 +23157,13 @@
         <v>1993</v>
       </c>
       <c r="AA327" s="40"/>
-      <c r="AB327" s="41" t="s">
+      <c r="AB327" s="39"/>
+      <c r="AC327" s="41" t="s">
         <v>457</v>
       </c>
-      <c r="AC327" s="41"/>
-    </row>
-    <row r="328" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD327" s="41"/>
+    </row>
+    <row r="328" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B328" s="70" t="s">
         <v>66</v>
       </c>
@@ -22594,14 +23220,15 @@
         <v>1976</v>
       </c>
       <c r="AA328" s="40"/>
-      <c r="AB328" s="41" t="s">
+      <c r="AB328" s="39"/>
+      <c r="AC328" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="AC328" s="41" t="s">
+      <c r="AD328" s="41" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="329" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B329" s="70" t="s">
         <v>66</v>
       </c>
@@ -22656,14 +23283,15 @@
         <v>1976</v>
       </c>
       <c r="AA329" s="40"/>
-      <c r="AB329" s="41" t="s">
+      <c r="AB329" s="39"/>
+      <c r="AC329" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AC329" s="41" t="s">
+      <c r="AD329" s="41" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="330" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B330" s="70" t="s">
         <v>66</v>
       </c>
@@ -22718,14 +23346,15 @@
         <v>1976</v>
       </c>
       <c r="AA330" s="40"/>
-      <c r="AB330" s="41" t="s">
+      <c r="AB330" s="39"/>
+      <c r="AC330" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AC330" s="41" t="s">
+      <c r="AD330" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="331" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B331" s="70" t="s">
         <v>66</v>
       </c>
@@ -22780,14 +23409,15 @@
       <c r="AA331" s="40">
         <v>2006</v>
       </c>
-      <c r="AB331" s="41" t="s">
+      <c r="AB331" s="39"/>
+      <c r="AC331" s="41" t="s">
         <v>597</v>
       </c>
-      <c r="AC331" s="41" t="s">
+      <c r="AD331" s="41" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="332" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B332" s="70" t="s">
         <v>70</v>
       </c>
@@ -22844,12 +23474,15 @@
       <c r="AA332" s="40">
         <v>1980</v>
       </c>
-      <c r="AB332" s="41" t="s">
+      <c r="AB332" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC332" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="AC332" s="41"/>
-    </row>
-    <row r="333" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD332" s="41"/>
+    </row>
+    <row r="333" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B333" s="70" t="s">
         <v>70</v>
       </c>
@@ -22904,12 +23537,15 @@
       <c r="AA333" s="40">
         <v>1980</v>
       </c>
-      <c r="AB333" s="41" t="s">
+      <c r="AB333" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC333" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="AC333" s="41"/>
-    </row>
-    <row r="334" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD333" s="41"/>
+    </row>
+    <row r="334" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B334" s="70" t="s">
         <v>70</v>
       </c>
@@ -22966,12 +23602,15 @@
       <c r="AA334" s="40">
         <v>1980</v>
       </c>
-      <c r="AB334" s="41" t="s">
+      <c r="AB334" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC334" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="AC334" s="41"/>
-    </row>
-    <row r="335" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD334" s="41"/>
+    </row>
+    <row r="335" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B335" s="70" t="s">
         <v>70</v>
       </c>
@@ -23026,12 +23665,15 @@
       <c r="AA335" s="40">
         <v>1980</v>
       </c>
-      <c r="AB335" s="41" t="s">
+      <c r="AB335" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC335" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="AC335" s="41"/>
-    </row>
-    <row r="336" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD335" s="41"/>
+    </row>
+    <row r="336" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B336" s="70" t="s">
         <v>70</v>
       </c>
@@ -23086,12 +23728,15 @@
       <c r="AA336" s="40">
         <v>1980</v>
       </c>
-      <c r="AB336" s="41" t="s">
+      <c r="AB336" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC336" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="AC336" s="41"/>
-    </row>
-    <row r="337" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD336" s="41"/>
+    </row>
+    <row r="337" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B337" s="70" t="s">
         <v>70</v>
       </c>
@@ -23148,12 +23793,15 @@
       <c r="AA337" s="40">
         <v>1980</v>
       </c>
-      <c r="AB337" s="41" t="s">
+      <c r="AB337" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC337" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="AC337" s="41"/>
-    </row>
-    <row r="338" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD337" s="41"/>
+    </row>
+    <row r="338" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B338" s="70" t="s">
         <v>70</v>
       </c>
@@ -23208,12 +23856,15 @@
       <c r="AA338" s="40">
         <v>1980</v>
       </c>
-      <c r="AB338" s="41" t="s">
+      <c r="AB338" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC338" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="AC338" s="41"/>
-    </row>
-    <row r="339" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD338" s="41"/>
+    </row>
+    <row r="339" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B339" s="70" t="s">
         <v>70</v>
       </c>
@@ -23268,12 +23919,15 @@
       <c r="AA339" s="40">
         <v>1980</v>
       </c>
-      <c r="AB339" s="41" t="s">
+      <c r="AB339" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC339" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="AC339" s="41"/>
-    </row>
-    <row r="340" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD339" s="41"/>
+    </row>
+    <row r="340" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B340" s="70" t="s">
         <v>70</v>
       </c>
@@ -23326,14 +23980,17 @@
         <v>1981</v>
       </c>
       <c r="AA340" s="40"/>
-      <c r="AB340" s="41" t="s">
+      <c r="AB340" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC340" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="AC340" s="41" t="s">
+      <c r="AD340" s="41" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="341" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B341" s="70" t="s">
         <v>70</v>
       </c>
@@ -23388,14 +24045,17 @@
         <v>1981</v>
       </c>
       <c r="AA341" s="40"/>
-      <c r="AB341" s="41" t="s">
+      <c r="AB341" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC341" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="AC341" s="41" t="s">
+      <c r="AD341" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="342" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B342" s="70" t="s">
         <v>70</v>
       </c>
@@ -23448,14 +24108,17 @@
         <v>1981</v>
       </c>
       <c r="AA342" s="40"/>
-      <c r="AB342" s="41" t="s">
+      <c r="AB342" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC342" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="AC342" s="41" t="s">
+      <c r="AD342" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="343" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B343" s="70" t="s">
         <v>70</v>
       </c>
@@ -23508,12 +24171,15 @@
         <v>1981</v>
       </c>
       <c r="AA343" s="40"/>
-      <c r="AB343" s="41" t="s">
+      <c r="AB343" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC343" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="AC343" s="41"/>
-    </row>
-    <row r="344" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD343" s="41"/>
+    </row>
+    <row r="344" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B344" s="70" t="s">
         <v>70</v>
       </c>
@@ -23566,12 +24232,15 @@
         <v>1981</v>
       </c>
       <c r="AA344" s="40"/>
-      <c r="AB344" s="41" t="s">
+      <c r="AB344" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC344" s="41" t="s">
         <v>598</v>
       </c>
-      <c r="AC344" s="41"/>
-    </row>
-    <row r="345" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD344" s="41"/>
+    </row>
+    <row r="345" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B345" s="70" t="s">
         <v>70</v>
       </c>
@@ -23626,14 +24295,17 @@
         <v>1981</v>
       </c>
       <c r="AA345" s="40"/>
-      <c r="AB345" s="41" t="s">
+      <c r="AB345" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC345" s="41" t="s">
         <v>542</v>
       </c>
-      <c r="AC345" s="41" t="s">
+      <c r="AD345" s="41" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="346" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B346" s="70" t="s">
         <v>70</v>
       </c>
@@ -23690,12 +24362,15 @@
         <v>1981</v>
       </c>
       <c r="AA346" s="40"/>
-      <c r="AB346" s="41" t="s">
+      <c r="AB346" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC346" s="41" t="s">
         <v>542</v>
       </c>
-      <c r="AC346" s="41"/>
-    </row>
-    <row r="347" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD346" s="41"/>
+    </row>
+    <row r="347" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B347" s="70" t="s">
         <v>70</v>
       </c>
@@ -23750,12 +24425,15 @@
         <v>1981</v>
       </c>
       <c r="AA347" s="40"/>
-      <c r="AB347" s="41" t="s">
+      <c r="AB347" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC347" s="41" t="s">
         <v>542</v>
       </c>
-      <c r="AC347" s="41"/>
-    </row>
-    <row r="348" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD347" s="41"/>
+    </row>
+    <row r="348" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B348" s="70" t="s">
         <v>70</v>
       </c>
@@ -23810,12 +24488,15 @@
         <v>1979</v>
       </c>
       <c r="AA348" s="40"/>
-      <c r="AB348" s="41" t="s">
+      <c r="AB348" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC348" s="41" t="s">
         <v>542</v>
       </c>
-      <c r="AC348" s="41"/>
-    </row>
-    <row r="349" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD348" s="41"/>
+    </row>
+    <row r="349" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B349" s="70" t="s">
         <v>70</v>
       </c>
@@ -23870,12 +24551,15 @@
         <v>1979</v>
       </c>
       <c r="AA349" s="40"/>
-      <c r="AB349" s="41" t="s">
+      <c r="AB349" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC349" s="41" t="s">
         <v>542</v>
       </c>
-      <c r="AC349" s="41"/>
-    </row>
-    <row r="350" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD349" s="41"/>
+    </row>
+    <row r="350" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B350" s="70" t="s">
         <v>70</v>
       </c>
@@ -23932,12 +24616,15 @@
         <v>1979</v>
       </c>
       <c r="AA350" s="40"/>
-      <c r="AB350" s="41" t="s">
+      <c r="AB350" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC350" s="41" t="s">
         <v>542</v>
       </c>
-      <c r="AC350" s="41"/>
-    </row>
-    <row r="351" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD350" s="41"/>
+    </row>
+    <row r="351" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B351" s="70" t="s">
         <v>70</v>
       </c>
@@ -23994,12 +24681,15 @@
         <v>1979</v>
       </c>
       <c r="AA351" s="40"/>
-      <c r="AB351" s="41" t="s">
+      <c r="AB351" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC351" s="41" t="s">
         <v>542</v>
       </c>
-      <c r="AC351" s="41"/>
-    </row>
-    <row r="352" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD351" s="41"/>
+    </row>
+    <row r="352" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B352" s="70" t="s">
         <v>70</v>
       </c>
@@ -24056,12 +24746,15 @@
         <v>1979</v>
       </c>
       <c r="AA352" s="40"/>
-      <c r="AB352" s="41" t="s">
+      <c r="AB352" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC352" s="41" t="s">
         <v>542</v>
       </c>
-      <c r="AC352" s="41"/>
-    </row>
-    <row r="353" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD352" s="41"/>
+    </row>
+    <row r="353" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B353" s="70" t="s">
         <v>70</v>
       </c>
@@ -24118,12 +24811,15 @@
         <v>1979</v>
       </c>
       <c r="AA353" s="40"/>
-      <c r="AB353" s="41" t="s">
+      <c r="AB353" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC353" s="41" t="s">
         <v>542</v>
       </c>
-      <c r="AC353" s="41"/>
-    </row>
-    <row r="354" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD353" s="41"/>
+    </row>
+    <row r="354" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B354" s="70" t="s">
         <v>70</v>
       </c>
@@ -24178,12 +24874,15 @@
         <v>1981</v>
       </c>
       <c r="AA354" s="40"/>
-      <c r="AB354" s="41" t="s">
+      <c r="AB354" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC354" s="41" t="s">
         <v>542</v>
       </c>
-      <c r="AC354" s="41"/>
-    </row>
-    <row r="355" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD354" s="41"/>
+    </row>
+    <row r="355" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B355" s="70" t="s">
         <v>70</v>
       </c>
@@ -24238,12 +24937,15 @@
         <v>1981</v>
       </c>
       <c r="AA355" s="40"/>
-      <c r="AB355" s="41" t="s">
+      <c r="AB355" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC355" s="41" t="s">
         <v>542</v>
       </c>
-      <c r="AC355" s="41"/>
-    </row>
-    <row r="356" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD355" s="41"/>
+    </row>
+    <row r="356" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B356" s="70" t="s">
         <v>71</v>
       </c>
@@ -24300,12 +25002,13 @@
         <v>1976</v>
       </c>
       <c r="AA356" s="40"/>
-      <c r="AB356" s="41" t="s">
+      <c r="AB356" s="39"/>
+      <c r="AC356" s="41" t="s">
         <v>608</v>
       </c>
-      <c r="AC356" s="41"/>
-    </row>
-    <row r="357" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD356" s="41"/>
+    </row>
+    <row r="357" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B357" s="70" t="s">
         <v>72</v>
       </c>
@@ -24360,14 +25063,15 @@
       <c r="AA357" s="40">
         <v>2013</v>
       </c>
-      <c r="AB357" s="41" t="s">
+      <c r="AB357" s="39"/>
+      <c r="AC357" s="41" t="s">
         <v>599</v>
       </c>
-      <c r="AC357" s="41" t="s">
+      <c r="AD357" s="41" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="358" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B358" s="70" t="s">
         <v>72</v>
       </c>
@@ -24422,14 +25126,15 @@
       <c r="AA358" s="40">
         <v>2013</v>
       </c>
-      <c r="AB358" s="41" t="s">
+      <c r="AB358" s="39"/>
+      <c r="AC358" s="41" t="s">
         <v>599</v>
       </c>
-      <c r="AC358" s="41" t="s">
+      <c r="AD358" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="359" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B359" s="70" t="s">
         <v>72</v>
       </c>
@@ -24484,14 +25189,15 @@
       <c r="AA359" s="40">
         <v>2013</v>
       </c>
-      <c r="AB359" s="41" t="s">
+      <c r="AB359" s="39"/>
+      <c r="AC359" s="41" t="s">
         <v>599</v>
       </c>
-      <c r="AC359" s="41" t="s">
+      <c r="AD359" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="360" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B360" s="70" t="s">
         <v>72</v>
       </c>
@@ -24546,14 +25252,15 @@
       <c r="AA360" s="40">
         <v>2013</v>
       </c>
-      <c r="AB360" s="41" t="s">
+      <c r="AB360" s="39"/>
+      <c r="AC360" s="41" t="s">
         <v>599</v>
       </c>
-      <c r="AC360" s="41" t="s">
+      <c r="AD360" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="361" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A361" s="68"/>
       <c r="B361" s="70" t="s">
         <v>72</v>
@@ -24609,14 +25316,15 @@
       <c r="AA361" s="40">
         <v>2013</v>
       </c>
-      <c r="AB361" s="41" t="s">
+      <c r="AB361" s="39"/>
+      <c r="AC361" s="41" t="s">
         <v>599</v>
       </c>
-      <c r="AC361" s="41" t="s">
+      <c r="AD361" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="362" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B362" s="70" t="s">
         <v>72</v>
       </c>
@@ -24671,12 +25379,13 @@
         <v>2014</v>
       </c>
       <c r="AA362" s="40"/>
-      <c r="AB362" s="41" t="s">
+      <c r="AB362" s="39"/>
+      <c r="AC362" s="41" t="s">
         <v>447</v>
       </c>
-      <c r="AC362" s="41"/>
-    </row>
-    <row r="363" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD362" s="41"/>
+    </row>
+    <row r="363" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B363" s="70" t="s">
         <v>73</v>
       </c>
@@ -24731,14 +25440,15 @@
         <v>1976</v>
       </c>
       <c r="AA363" s="40"/>
-      <c r="AB363" s="41" t="s">
+      <c r="AB363" s="39"/>
+      <c r="AC363" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="AC363" s="41" t="s">
+      <c r="AD363" s="41" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="364" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B364" s="70" t="s">
         <v>74</v>
       </c>
@@ -24793,14 +25503,17 @@
       <c r="AA364" s="40">
         <v>1976</v>
       </c>
-      <c r="AB364" s="41" t="s">
+      <c r="AB364" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC364" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC364" s="41" t="s">
+      <c r="AD364" s="41" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="365" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B365" s="70" t="s">
         <v>74</v>
       </c>
@@ -24855,14 +25568,17 @@
       <c r="AA365" s="40">
         <v>1976</v>
       </c>
-      <c r="AB365" s="41" t="s">
+      <c r="AB365" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC365" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC365" s="41" t="s">
+      <c r="AD365" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="366" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B366" s="70" t="s">
         <v>74</v>
       </c>
@@ -24917,14 +25633,17 @@
       <c r="AA366" s="40">
         <v>1976</v>
       </c>
-      <c r="AB366" s="41" t="s">
+      <c r="AB366" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC366" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC366" s="41" t="s">
+      <c r="AD366" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="367" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B367" s="70" t="s">
         <v>74</v>
       </c>
@@ -24979,14 +25698,17 @@
       <c r="AA367" s="40">
         <v>1976</v>
       </c>
-      <c r="AB367" s="41" t="s">
+      <c r="AB367" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC367" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC367" s="41" t="s">
+      <c r="AD367" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="368" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B368" s="70" t="s">
         <v>74</v>
       </c>
@@ -25041,14 +25763,17 @@
       <c r="AA368" s="40">
         <v>1976</v>
       </c>
-      <c r="AB368" s="41" t="s">
+      <c r="AB368" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC368" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC368" s="41" t="s">
+      <c r="AD368" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="369" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B369" s="70" t="s">
         <v>74</v>
       </c>
@@ -25103,14 +25828,17 @@
       <c r="AA369" s="40">
         <v>1976</v>
       </c>
-      <c r="AB369" s="41" t="s">
+      <c r="AB369" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC369" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC369" s="41" t="s">
+      <c r="AD369" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="370" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B370" s="70" t="s">
         <v>74</v>
       </c>
@@ -25165,14 +25893,17 @@
       <c r="AA370" s="40">
         <v>1976</v>
       </c>
-      <c r="AB370" s="41" t="s">
+      <c r="AB370" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC370" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC370" s="41" t="s">
+      <c r="AD370" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="371" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B371" s="70" t="s">
         <v>74</v>
       </c>
@@ -25227,14 +25958,17 @@
       <c r="AA371" s="40">
         <v>1976</v>
       </c>
-      <c r="AB371" s="41" t="s">
+      <c r="AB371" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC371" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC371" s="41" t="s">
+      <c r="AD371" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="372" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B372" s="70" t="s">
         <v>74</v>
       </c>
@@ -25289,14 +26023,17 @@
       <c r="AA372" s="40">
         <v>1976</v>
       </c>
-      <c r="AB372" s="41" t="s">
+      <c r="AB372" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC372" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC372" s="41" t="s">
+      <c r="AD372" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="373" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B373" s="70" t="s">
         <v>74</v>
       </c>
@@ -25351,14 +26088,17 @@
       <c r="AA373" s="40">
         <v>1976</v>
       </c>
-      <c r="AB373" s="41" t="s">
+      <c r="AB373" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC373" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC373" s="41" t="s">
+      <c r="AD373" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="374" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B374" s="70" t="s">
         <v>74</v>
       </c>
@@ -25413,14 +26153,17 @@
       <c r="AA374" s="40">
         <v>1976</v>
       </c>
-      <c r="AB374" s="41" t="s">
+      <c r="AB374" s="39" t="s">
+        <v>633</v>
+      </c>
+      <c r="AC374" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC374" s="41" t="s">
+      <c r="AD374" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="375" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B375" s="70" t="s">
         <v>74</v>
       </c>
@@ -25475,14 +26218,17 @@
       <c r="AA375" s="40">
         <v>1984</v>
       </c>
-      <c r="AB375" s="41" t="s">
+      <c r="AB375" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC375" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC375" s="41" t="s">
+      <c r="AD375" s="41" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="376" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B376" s="70" t="s">
         <v>74</v>
       </c>
@@ -25537,14 +26283,17 @@
       <c r="AA376" s="40">
         <v>1984</v>
       </c>
-      <c r="AB376" s="41" t="s">
+      <c r="AB376" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC376" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC376" s="41" t="s">
+      <c r="AD376" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="377" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B377" s="70" t="s">
         <v>74</v>
       </c>
@@ -25599,14 +26348,17 @@
       <c r="AA377" s="40">
         <v>1984</v>
       </c>
-      <c r="AB377" s="41" t="s">
+      <c r="AB377" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC377" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC377" s="41" t="s">
+      <c r="AD377" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="378" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B378" s="70" t="s">
         <v>74</v>
       </c>
@@ -25661,14 +26413,17 @@
       <c r="AA378" s="40">
         <v>1984</v>
       </c>
-      <c r="AB378" s="41" t="s">
+      <c r="AB378" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC378" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC378" s="41" t="s">
+      <c r="AD378" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="379" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B379" s="70" t="s">
         <v>74</v>
       </c>
@@ -25723,14 +26478,17 @@
       <c r="AA379" s="40">
         <v>1984</v>
       </c>
-      <c r="AB379" s="41" t="s">
+      <c r="AB379" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC379" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC379" s="41" t="s">
+      <c r="AD379" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="380" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B380" s="70" t="s">
         <v>74</v>
       </c>
@@ -25785,14 +26543,17 @@
       <c r="AA380" s="40">
         <v>1984</v>
       </c>
-      <c r="AB380" s="41" t="s">
+      <c r="AB380" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC380" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC380" s="41" t="s">
+      <c r="AD380" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="381" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B381" s="70" t="s">
         <v>74</v>
       </c>
@@ -25847,14 +26608,17 @@
       <c r="AA381" s="40">
         <v>1984</v>
       </c>
-      <c r="AB381" s="41" t="s">
+      <c r="AB381" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC381" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC381" s="41" t="s">
+      <c r="AD381" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="382" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B382" s="70" t="s">
         <v>74</v>
       </c>
@@ -25909,14 +26673,17 @@
       <c r="AA382" s="40">
         <v>1984</v>
       </c>
-      <c r="AB382" s="41" t="s">
+      <c r="AB382" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC382" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC382" s="41" t="s">
+      <c r="AD382" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="383" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B383" s="70" t="s">
         <v>74</v>
       </c>
@@ -25971,14 +26738,17 @@
       <c r="AA383" s="40">
         <v>1984</v>
       </c>
-      <c r="AB383" s="41" t="s">
+      <c r="AB383" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC383" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC383" s="41" t="s">
+      <c r="AD383" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="384" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B384" s="70" t="s">
         <v>74</v>
       </c>
@@ -26033,14 +26803,17 @@
       <c r="AA384" s="40">
         <v>1984</v>
       </c>
-      <c r="AB384" s="41" t="s">
+      <c r="AB384" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC384" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC384" s="41" t="s">
+      <c r="AD384" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="385" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B385" s="70" t="s">
         <v>74</v>
       </c>
@@ -26095,14 +26868,17 @@
       <c r="AA385" s="40">
         <v>1984</v>
       </c>
-      <c r="AB385" s="41" t="s">
+      <c r="AB385" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC385" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC385" s="41" t="s">
+      <c r="AD385" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="386" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B386" s="70" t="s">
         <v>74</v>
       </c>
@@ -26157,14 +26933,17 @@
       <c r="AA386" s="40">
         <v>1984</v>
       </c>
-      <c r="AB386" s="41" t="s">
+      <c r="AB386" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC386" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC386" s="41" t="s">
+      <c r="AD386" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="387" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A387" s="44"/>
       <c r="B387" s="70" t="s">
         <v>74</v>
@@ -26220,14 +26999,17 @@
       <c r="AA387" s="40">
         <v>1984</v>
       </c>
-      <c r="AB387" s="41" t="s">
+      <c r="AB387" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC387" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC387" s="41" t="s">
+      <c r="AD387" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="388" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B388" s="70" t="s">
         <v>74</v>
       </c>
@@ -26282,14 +27064,17 @@
       <c r="AA388" s="40">
         <v>1984</v>
       </c>
-      <c r="AB388" s="41" t="s">
+      <c r="AB388" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC388" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC388" s="41" t="s">
+      <c r="AD388" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="389" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B389" s="70" t="s">
         <v>74</v>
       </c>
@@ -26344,14 +27129,17 @@
       <c r="AA389" s="40">
         <v>1984</v>
       </c>
-      <c r="AB389" s="41" t="s">
+      <c r="AB389" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC389" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC389" s="41" t="s">
+      <c r="AD389" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="390" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B390" s="70" t="s">
         <v>74</v>
       </c>
@@ -26406,14 +27194,17 @@
       <c r="AA390" s="40">
         <v>1984</v>
       </c>
-      <c r="AB390" s="41" t="s">
+      <c r="AB390" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC390" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC390" s="41" t="s">
+      <c r="AD390" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="391" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B391" s="70" t="s">
         <v>74</v>
       </c>
@@ -26468,14 +27259,17 @@
       <c r="AA391" s="40">
         <v>1984</v>
       </c>
-      <c r="AB391" s="41" t="s">
+      <c r="AB391" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC391" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC391" s="41" t="s">
+      <c r="AD391" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="392" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B392" s="70" t="s">
         <v>74</v>
       </c>
@@ -26530,14 +27324,17 @@
       <c r="AA392" s="40">
         <v>1984</v>
       </c>
-      <c r="AB392" s="41" t="s">
+      <c r="AB392" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC392" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC392" s="41" t="s">
+      <c r="AD392" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="393" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B393" s="70" t="s">
         <v>74</v>
       </c>
@@ -26592,14 +27389,17 @@
       <c r="AA393" s="40">
         <v>1984</v>
       </c>
-      <c r="AB393" s="41" t="s">
+      <c r="AB393" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC393" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC393" s="41" t="s">
+      <c r="AD393" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="394" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B394" s="70" t="s">
         <v>74</v>
       </c>
@@ -26654,14 +27454,17 @@
       <c r="AA394" s="40">
         <v>1984</v>
       </c>
-      <c r="AB394" s="41" t="s">
+      <c r="AB394" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC394" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC394" s="41" t="s">
+      <c r="AD394" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="395" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B395" s="70" t="s">
         <v>74</v>
       </c>
@@ -26716,14 +27519,17 @@
       <c r="AA395" s="40">
         <v>1984</v>
       </c>
-      <c r="AB395" s="41" t="s">
+      <c r="AB395" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC395" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC395" s="41" t="s">
+      <c r="AD395" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="396" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B396" s="70" t="s">
         <v>74</v>
       </c>
@@ -26778,14 +27584,17 @@
       <c r="AA396" s="40">
         <v>1984</v>
       </c>
-      <c r="AB396" s="41" t="s">
+      <c r="AB396" s="39" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC396" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="AC396" s="41" t="s">
+      <c r="AD396" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="397" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B397" s="70" t="s">
         <v>74</v>
       </c>
@@ -26838,12 +27647,15 @@
         <v>1984</v>
       </c>
       <c r="AA397" s="40"/>
-      <c r="AB397" s="41" t="s">
+      <c r="AB397" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC397" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AC397" s="41"/>
-    </row>
-    <row r="398" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD397" s="41"/>
+    </row>
+    <row r="398" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B398" s="70" t="s">
         <v>74</v>
       </c>
@@ -26896,12 +27708,15 @@
         <v>1984</v>
       </c>
       <c r="AA398" s="40"/>
-      <c r="AB398" s="41" t="s">
+      <c r="AB398" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC398" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AC398" s="41"/>
-    </row>
-    <row r="399" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD398" s="41"/>
+    </row>
+    <row r="399" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B399" s="70" t="s">
         <v>74</v>
       </c>
@@ -26954,12 +27769,15 @@
         <v>1984</v>
       </c>
       <c r="AA399" s="40"/>
-      <c r="AB399" s="41" t="s">
+      <c r="AB399" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC399" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AC399" s="41"/>
-    </row>
-    <row r="400" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD399" s="41"/>
+    </row>
+    <row r="400" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B400" s="70" t="s">
         <v>74</v>
       </c>
@@ -27012,12 +27830,15 @@
         <v>1984</v>
       </c>
       <c r="AA400" s="40"/>
-      <c r="AB400" s="41" t="s">
+      <c r="AB400" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC400" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AC400" s="41"/>
-    </row>
-    <row r="401" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD400" s="41"/>
+    </row>
+    <row r="401" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B401" s="70" t="s">
         <v>74</v>
       </c>
@@ -27070,12 +27891,15 @@
         <v>1984</v>
       </c>
       <c r="AA401" s="40"/>
-      <c r="AB401" s="41" t="s">
+      <c r="AB401" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC401" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AC401" s="41"/>
-    </row>
-    <row r="402" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD401" s="41"/>
+    </row>
+    <row r="402" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B402" s="70" t="s">
         <v>74</v>
       </c>
@@ -27128,12 +27952,15 @@
         <v>1984</v>
       </c>
       <c r="AA402" s="40"/>
-      <c r="AB402" s="41" t="s">
+      <c r="AB402" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC402" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AC402" s="41"/>
-    </row>
-    <row r="403" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD402" s="41"/>
+    </row>
+    <row r="403" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B403" s="70" t="s">
         <v>74</v>
       </c>
@@ -27186,12 +28013,15 @@
         <v>1984</v>
       </c>
       <c r="AA403" s="40"/>
-      <c r="AB403" s="41" t="s">
+      <c r="AB403" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC403" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AC403" s="41"/>
-    </row>
-    <row r="404" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD403" s="41"/>
+    </row>
+    <row r="404" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B404" s="70" t="s">
         <v>74</v>
       </c>
@@ -27244,12 +28074,15 @@
         <v>1980</v>
       </c>
       <c r="AA404" s="40"/>
-      <c r="AB404" s="41" t="s">
+      <c r="AB404" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC404" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AC404" s="41"/>
-    </row>
-    <row r="405" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD404" s="41"/>
+    </row>
+    <row r="405" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B405" s="70" t="s">
         <v>74</v>
       </c>
@@ -27302,12 +28135,15 @@
         <v>1984</v>
       </c>
       <c r="AA405" s="40"/>
-      <c r="AB405" s="41" t="s">
+      <c r="AB405" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC405" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AC405" s="41"/>
-    </row>
-    <row r="406" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD405" s="41"/>
+    </row>
+    <row r="406" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B406" s="70" t="s">
         <v>74</v>
       </c>
@@ -27360,12 +28196,15 @@
         <v>1984</v>
       </c>
       <c r="AA406" s="40"/>
-      <c r="AB406" s="41" t="s">
+      <c r="AB406" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC406" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AC406" s="41"/>
-    </row>
-    <row r="407" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD406" s="41"/>
+    </row>
+    <row r="407" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B407" s="70" t="s">
         <v>74</v>
       </c>
@@ -27418,12 +28257,15 @@
         <v>1984</v>
       </c>
       <c r="AA407" s="40"/>
-      <c r="AB407" s="41" t="s">
+      <c r="AB407" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC407" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AC407" s="41"/>
-    </row>
-    <row r="408" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD407" s="41"/>
+    </row>
+    <row r="408" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B408" s="70" t="s">
         <v>74</v>
       </c>
@@ -27476,12 +28318,15 @@
         <v>1984</v>
       </c>
       <c r="AA408" s="40"/>
-      <c r="AB408" s="41" t="s">
+      <c r="AB408" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC408" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AC408" s="41"/>
-    </row>
-    <row r="409" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD408" s="41"/>
+    </row>
+    <row r="409" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B409" s="70" t="s">
         <v>74</v>
       </c>
@@ -27534,12 +28379,15 @@
         <v>1984</v>
       </c>
       <c r="AA409" s="40"/>
-      <c r="AB409" s="41" t="s">
+      <c r="AB409" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC409" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AC409" s="41"/>
-    </row>
-    <row r="410" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD409" s="41"/>
+    </row>
+    <row r="410" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B410" s="70" t="s">
         <v>74</v>
       </c>
@@ -27592,12 +28440,15 @@
         <v>1984</v>
       </c>
       <c r="AA410" s="40"/>
-      <c r="AB410" s="41" t="s">
+      <c r="AB410" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC410" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AC410" s="41"/>
-    </row>
-    <row r="411" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD410" s="41"/>
+    </row>
+    <row r="411" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B411" s="70" t="s">
         <v>74</v>
       </c>
@@ -27650,12 +28501,15 @@
         <v>1984</v>
       </c>
       <c r="AA411" s="40"/>
-      <c r="AB411" s="41" t="s">
+      <c r="AB411" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC411" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AC411" s="41"/>
-    </row>
-    <row r="412" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD411" s="41"/>
+    </row>
+    <row r="412" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B412" s="70" t="s">
         <v>74</v>
       </c>
@@ -27708,12 +28562,15 @@
         <v>1980</v>
       </c>
       <c r="AA412" s="40"/>
-      <c r="AB412" s="41" t="s">
+      <c r="AB412" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC412" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AC412" s="41"/>
-    </row>
-    <row r="413" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD412" s="41"/>
+    </row>
+    <row r="413" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B413" s="70" t="s">
         <v>74</v>
       </c>
@@ -27766,12 +28623,15 @@
         <v>1984</v>
       </c>
       <c r="AA413" s="40"/>
-      <c r="AB413" s="41" t="s">
+      <c r="AB413" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC413" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AC413" s="41"/>
-    </row>
-    <row r="414" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD413" s="41"/>
+    </row>
+    <row r="414" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B414" s="70" t="s">
         <v>74</v>
       </c>
@@ -27824,12 +28684,15 @@
         <v>1984</v>
       </c>
       <c r="AA414" s="40"/>
-      <c r="AB414" s="41" t="s">
+      <c r="AB414" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC414" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AC414" s="41"/>
-    </row>
-    <row r="415" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD414" s="41"/>
+    </row>
+    <row r="415" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B415" s="70" t="s">
         <v>74</v>
       </c>
@@ -27882,12 +28745,15 @@
         <v>1984</v>
       </c>
       <c r="AA415" s="40"/>
-      <c r="AB415" s="41" t="s">
+      <c r="AB415" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC415" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AC415" s="41"/>
-    </row>
-    <row r="416" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD415" s="41"/>
+    </row>
+    <row r="416" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B416" s="70" t="s">
         <v>74</v>
       </c>
@@ -27940,12 +28806,15 @@
         <v>1984</v>
       </c>
       <c r="AA416" s="40"/>
-      <c r="AB416" s="41" t="s">
+      <c r="AB416" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC416" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AC416" s="41"/>
-    </row>
-    <row r="417" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD416" s="41"/>
+    </row>
+    <row r="417" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B417" s="70" t="s">
         <v>74</v>
       </c>
@@ -27998,12 +28867,15 @@
         <v>1984</v>
       </c>
       <c r="AA417" s="40"/>
-      <c r="AB417" s="41" t="s">
+      <c r="AB417" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC417" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AC417" s="41"/>
-    </row>
-    <row r="418" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD417" s="41"/>
+    </row>
+    <row r="418" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B418" s="70" t="s">
         <v>74</v>
       </c>
@@ -28056,12 +28928,15 @@
         <v>1984</v>
       </c>
       <c r="AA418" s="40"/>
-      <c r="AB418" s="41" t="s">
+      <c r="AB418" s="39" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC418" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="AC418" s="41"/>
-    </row>
-    <row r="419" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD418" s="41"/>
+    </row>
+    <row r="419" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B419" s="70" t="s">
         <v>74</v>
       </c>
@@ -28114,12 +28989,13 @@
         <v>1976</v>
       </c>
       <c r="AA419" s="40"/>
-      <c r="AB419" s="41" t="s">
+      <c r="AB419" s="39"/>
+      <c r="AC419" s="41" t="s">
         <v>576</v>
       </c>
-      <c r="AC419" s="41"/>
-    </row>
-    <row r="420" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD419" s="41"/>
+    </row>
+    <row r="420" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B420" s="70" t="s">
         <v>75</v>
       </c>
@@ -28174,12 +29050,13 @@
       <c r="AA420" s="40">
         <v>1981</v>
       </c>
-      <c r="AB420" s="41" t="s">
+      <c r="AB420" s="39"/>
+      <c r="AC420" s="41" t="s">
         <v>601</v>
       </c>
-      <c r="AC420" s="41"/>
-    </row>
-    <row r="421" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD420" s="41"/>
+    </row>
+    <row r="421" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B421" s="70" t="s">
         <v>75</v>
       </c>
@@ -28232,12 +29109,13 @@
         <v>1982</v>
       </c>
       <c r="AA421" s="40"/>
-      <c r="AB421" s="41" t="s">
+      <c r="AB421" s="39"/>
+      <c r="AC421" s="41" t="s">
         <v>458</v>
       </c>
-      <c r="AC421" s="41"/>
-    </row>
-    <row r="422" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD421" s="41"/>
+    </row>
+    <row r="422" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B422" s="70" t="s">
         <v>75</v>
       </c>
@@ -28292,12 +29170,13 @@
         <v>1982</v>
       </c>
       <c r="AA422" s="40"/>
-      <c r="AB422" s="41" t="s">
+      <c r="AB422" s="39"/>
+      <c r="AC422" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="AC422" s="41"/>
-    </row>
-    <row r="423" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD422" s="41"/>
+    </row>
+    <row r="423" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B423" s="70" t="s">
         <v>76</v>
       </c>
@@ -28356,14 +29235,15 @@
       <c r="AA423" s="40">
         <v>1983</v>
       </c>
-      <c r="AB423" s="41" t="s">
+      <c r="AB423" s="39"/>
+      <c r="AC423" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="AC423" s="41" t="s">
+      <c r="AD423" s="41" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="424" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B424" s="70" t="s">
         <v>76</v>
       </c>
@@ -28420,14 +29300,15 @@
         <v>1983</v>
       </c>
       <c r="AA424" s="40"/>
-      <c r="AB424" s="41" t="s">
+      <c r="AB424" s="39"/>
+      <c r="AC424" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="AC424" s="41" t="s">
+      <c r="AD424" s="41" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="425" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B425" s="70" t="s">
         <v>77</v>
       </c>
@@ -28482,12 +29363,13 @@
         <v>1979</v>
       </c>
       <c r="AA425" s="40"/>
-      <c r="AB425" s="41" t="s">
+      <c r="AB425" s="39"/>
+      <c r="AC425" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="AC425" s="41"/>
-    </row>
-    <row r="426" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD425" s="41"/>
+    </row>
+    <row r="426" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B426" s="70" t="s">
         <v>77</v>
       </c>
@@ -28546,12 +29428,13 @@
       <c r="AA426" s="40">
         <v>1979</v>
       </c>
-      <c r="AB426" s="41" t="s">
+      <c r="AB426" s="39"/>
+      <c r="AC426" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="AC426" s="41"/>
-    </row>
-    <row r="427" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD426" s="41"/>
+    </row>
+    <row r="427" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B427" s="70" t="s">
         <v>77</v>
       </c>
@@ -28608,14 +29491,15 @@
         <v>1979</v>
       </c>
       <c r="AA427" s="40"/>
-      <c r="AB427" s="41" t="s">
+      <c r="AB427" s="39"/>
+      <c r="AC427" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="AC427" s="41" t="s">
+      <c r="AD427" s="41" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="428" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B428" s="70" t="s">
         <v>79</v>
       </c>
@@ -28668,12 +29552,12 @@
         <v>1976</v>
       </c>
       <c r="AA428" s="40"/>
-      <c r="AB428" s="41" t="s">
+      <c r="AC428" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="AC428" s="76"/>
-    </row>
-    <row r="429" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD428" s="76"/>
+    </row>
+    <row r="429" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B429" s="70" t="s">
         <v>79</v>
       </c>
@@ -28728,14 +29612,14 @@
       <c r="AA429" s="40">
         <v>1984</v>
       </c>
-      <c r="AB429" s="41" t="s">
+      <c r="AC429" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="AC429" s="41" t="s">
+      <c r="AD429" s="41" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="430" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B430" s="70" t="s">
         <v>79</v>
       </c>
@@ -28788,12 +29672,12 @@
         <v>1985</v>
       </c>
       <c r="AA430" s="40"/>
-      <c r="AB430" s="76" t="s">
+      <c r="AC430" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="AC430" s="41"/>
-    </row>
-    <row r="431" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD430" s="41"/>
+    </row>
+    <row r="431" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B431" s="70" t="s">
         <v>80</v>
       </c>
@@ -28850,12 +29734,13 @@
         <v>1976</v>
       </c>
       <c r="AA431" s="40"/>
-      <c r="AB431" s="41" t="s">
+      <c r="AB431" s="39"/>
+      <c r="AC431" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC431" s="41"/>
-    </row>
-    <row r="432" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD431" s="41"/>
+    </row>
+    <row r="432" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B432" s="70" t="s">
         <v>80</v>
       </c>
@@ -28914,12 +29799,13 @@
       <c r="AA432" s="40">
         <v>1975</v>
       </c>
-      <c r="AB432" s="41" t="s">
+      <c r="AB432" s="39"/>
+      <c r="AC432" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC432" s="41"/>
-    </row>
-    <row r="433" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD432" s="41"/>
+    </row>
+    <row r="433" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B433" s="70" t="s">
         <v>80</v>
       </c>
@@ -28976,12 +29862,13 @@
         <v>1976</v>
       </c>
       <c r="AA433" s="40"/>
-      <c r="AB433" s="41" t="s">
+      <c r="AB433" s="39"/>
+      <c r="AC433" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC433" s="41"/>
-    </row>
-    <row r="434" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD433" s="41"/>
+    </row>
+    <row r="434" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B434" s="70" t="s">
         <v>80</v>
       </c>
@@ -29034,12 +29921,13 @@
         <v>1976</v>
       </c>
       <c r="AA434" s="40"/>
-      <c r="AB434" s="41" t="s">
+      <c r="AB434" s="39"/>
+      <c r="AC434" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC434" s="41"/>
-    </row>
-    <row r="435" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD434" s="41"/>
+    </row>
+    <row r="435" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B435" s="70" t="s">
         <v>80</v>
       </c>
@@ -29094,14 +29982,15 @@
         <v>1976</v>
       </c>
       <c r="AA435" s="40"/>
-      <c r="AB435" s="41" t="s">
+      <c r="AB435" s="39"/>
+      <c r="AC435" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="AC435" s="41" t="s">
+      <c r="AD435" s="41" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="436" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B436" s="70" t="s">
         <v>83</v>
       </c>
@@ -29154,24 +30043,23 @@
       <c r="AA436" s="40">
         <v>1978</v>
       </c>
-      <c r="AB436" s="41" t="s">
+      <c r="AB436" s="39"/>
+      <c r="AC436" s="41" t="s">
         <v>541</v>
       </c>
-      <c r="AC436" s="41"/>
-    </row>
-    <row r="437" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD436" s="41"/>
+    </row>
+    <row r="437" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B437" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="C437" s="89" t="s">
+      <c r="C437" s="87" t="s">
         <v>242</v>
       </c>
-      <c r="D437" s="85"/>
-      <c r="E437" s="85" t="s">
+      <c r="E437" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F437" s="85"/>
-      <c r="G437" s="90"/>
+      <c r="G437" s="88"/>
       <c r="H437" s="36">
         <v>0</v>
       </c>
@@ -29212,12 +30100,13 @@
       <c r="AA437" s="40">
         <v>2000</v>
       </c>
-      <c r="AB437" s="41" t="s">
+      <c r="AB437" s="39"/>
+      <c r="AC437" s="41" t="s">
         <v>543</v>
       </c>
-      <c r="AC437" s="41"/>
-    </row>
-    <row r="438" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD437" s="41"/>
+    </row>
+    <row r="438" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B438" s="70" t="s">
         <v>83</v>
       </c>
@@ -29272,12 +30161,13 @@
       <c r="AA438" s="40">
         <v>2000</v>
       </c>
-      <c r="AB438" s="41" t="s">
+      <c r="AB438" s="39"/>
+      <c r="AC438" s="41" t="s">
         <v>543</v>
       </c>
-      <c r="AC438" s="41"/>
-    </row>
-    <row r="439" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD438" s="41"/>
+    </row>
+    <row r="439" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B439" s="70" t="s">
         <v>83</v>
       </c>
@@ -29330,12 +30220,13 @@
       <c r="AA439" s="40">
         <v>1978</v>
       </c>
-      <c r="AB439" s="41" t="s">
+      <c r="AB439" s="39"/>
+      <c r="AC439" s="41" t="s">
         <v>576</v>
       </c>
-      <c r="AC439" s="41"/>
-    </row>
-    <row r="440" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD439" s="41"/>
+    </row>
+    <row r="440" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B440" s="70" t="s">
         <v>83</v>
       </c>
@@ -29388,12 +30279,13 @@
       <c r="AA440" s="40">
         <v>2000</v>
       </c>
-      <c r="AB440" s="41" t="s">
+      <c r="AB440" s="39"/>
+      <c r="AC440" s="41" t="s">
         <v>543</v>
       </c>
-      <c r="AC440" s="41"/>
-    </row>
-    <row r="441" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD440" s="41"/>
+    </row>
+    <row r="441" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B441" s="70" t="s">
         <v>83</v>
       </c>
@@ -29442,12 +30334,13 @@
       <c r="AA441" s="40">
         <v>2000</v>
       </c>
-      <c r="AB441" s="41" t="s">
+      <c r="AB441" s="39"/>
+      <c r="AC441" s="41" t="s">
         <v>576</v>
       </c>
-      <c r="AC441" s="41"/>
-    </row>
-    <row r="442" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD441" s="41"/>
+    </row>
+    <row r="442" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B442" s="70" t="s">
         <v>83</v>
       </c>
@@ -29496,14 +30389,14 @@
         <v>2001</v>
       </c>
       <c r="AA442" s="40"/>
-      <c r="AB442" s="41" t="s">
+      <c r="AC442" s="41" t="s">
         <v>545</v>
       </c>
-      <c r="AC442" s="41" t="s">
+      <c r="AD442" s="41" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="443" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B443" s="70" t="s">
         <v>83</v>
       </c>
@@ -29552,14 +30445,14 @@
         <v>2001</v>
       </c>
       <c r="AA443" s="40"/>
-      <c r="AB443" s="41" t="s">
+      <c r="AC443" s="41" t="s">
         <v>545</v>
       </c>
-      <c r="AC443" s="41" t="s">
+      <c r="AD443" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="444" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B444" s="70" t="s">
         <v>83</v>
       </c>
@@ -29608,14 +30501,14 @@
         <v>2001</v>
       </c>
       <c r="AA444" s="40"/>
-      <c r="AB444" s="41" t="s">
+      <c r="AC444" s="41" t="s">
         <v>545</v>
       </c>
-      <c r="AC444" s="41" t="s">
+      <c r="AD444" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="445" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B445" s="70" t="s">
         <v>83</v>
       </c>
@@ -29664,14 +30557,14 @@
         <v>2001</v>
       </c>
       <c r="AA445" s="40"/>
-      <c r="AB445" s="41" t="s">
+      <c r="AC445" s="41" t="s">
         <v>545</v>
       </c>
-      <c r="AC445" s="41" t="s">
+      <c r="AD445" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="446" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B446" s="70" t="s">
         <v>83</v>
       </c>
@@ -29720,14 +30613,14 @@
         <v>2001</v>
       </c>
       <c r="AA446" s="40"/>
-      <c r="AB446" s="41" t="s">
+      <c r="AC446" s="41" t="s">
         <v>545</v>
       </c>
-      <c r="AC446" s="41" t="s">
+      <c r="AD446" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="447" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B447" s="70" t="s">
         <v>83</v>
       </c>
@@ -29776,14 +30669,14 @@
         <v>2001</v>
       </c>
       <c r="AA447" s="40"/>
-      <c r="AB447" s="41" t="s">
+      <c r="AC447" s="41" t="s">
         <v>545</v>
       </c>
-      <c r="AC447" s="41" t="s">
+      <c r="AD447" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="448" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B448" s="70" t="s">
         <v>83</v>
       </c>
@@ -29832,14 +30725,14 @@
         <v>2001</v>
       </c>
       <c r="AA448" s="40"/>
-      <c r="AB448" s="41" t="s">
+      <c r="AC448" s="41" t="s">
         <v>545</v>
       </c>
-      <c r="AC448" s="41" t="s">
+      <c r="AD448" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="449" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B449" s="70" t="s">
         <v>83</v>
       </c>
@@ -29888,14 +30781,14 @@
         <v>2001</v>
       </c>
       <c r="AA449" s="40"/>
-      <c r="AB449" s="41" t="s">
+      <c r="AC449" s="41" t="s">
         <v>545</v>
       </c>
-      <c r="AC449" s="41" t="s">
+      <c r="AD449" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="450" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B450" s="70" t="s">
         <v>83</v>
       </c>
@@ -29944,14 +30837,14 @@
         <v>2001</v>
       </c>
       <c r="AA450" s="40"/>
-      <c r="AB450" s="41" t="s">
+      <c r="AC450" s="41" t="s">
         <v>545</v>
       </c>
-      <c r="AC450" s="41" t="s">
+      <c r="AD450" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="451" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B451" s="70" t="s">
         <v>83</v>
       </c>
@@ -30000,14 +30893,14 @@
         <v>2001</v>
       </c>
       <c r="AA451" s="40"/>
-      <c r="AB451" s="33" t="s">
+      <c r="AC451" s="33" t="s">
         <v>545</v>
       </c>
-      <c r="AC451" s="41" t="s">
+      <c r="AD451" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="452" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B452" s="70" t="s">
         <v>83</v>
       </c>
@@ -30056,14 +30949,14 @@
         <v>2001</v>
       </c>
       <c r="AA452" s="40"/>
-      <c r="AB452" s="76" t="s">
+      <c r="AC452" s="76" t="s">
         <v>545</v>
       </c>
-      <c r="AC452" s="41" t="s">
+      <c r="AD452" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="453" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B453" s="70" t="s">
         <v>84</v>
       </c>
@@ -30118,14 +31011,15 @@
         <v>1985</v>
       </c>
       <c r="AA453" s="40"/>
-      <c r="AB453" s="46" t="s">
+      <c r="AB453" s="39"/>
+      <c r="AC453" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="AC453" s="51" t="s">
+      <c r="AD453" s="51" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="454" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B454" s="70" t="s">
         <v>84</v>
       </c>
@@ -30180,14 +31074,15 @@
         <v>1985</v>
       </c>
       <c r="AA454" s="40"/>
-      <c r="AB454" s="46" t="s">
+      <c r="AB454" s="39"/>
+      <c r="AC454" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="AC454" s="41" t="s">
+      <c r="AD454" s="41" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="455" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A455"/>
       <c r="B455" s="70" t="s">
         <v>84</v>
@@ -30245,14 +31140,15 @@
         <v>1985</v>
       </c>
       <c r="AA455" s="40"/>
-      <c r="AB455" s="46" t="s">
+      <c r="AB455" s="39"/>
+      <c r="AC455" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="AC455" s="76" t="s">
+      <c r="AD455" s="76" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="456" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A456"/>
       <c r="B456" s="70" t="s">
         <v>85</v>
@@ -30308,14 +31204,15 @@
         <v>2013</v>
       </c>
       <c r="AA456" s="40"/>
-      <c r="AB456" s="76" t="s">
+      <c r="AB456" s="39"/>
+      <c r="AC456" s="76" t="s">
         <v>548</v>
       </c>
-      <c r="AC456" s="41" t="s">
+      <c r="AD456" s="41" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="457" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A457"/>
       <c r="B457" s="70" t="s">
         <v>85</v>
@@ -30375,14 +31272,15 @@
       <c r="AA457" s="40">
         <v>2012</v>
       </c>
-      <c r="AB457" s="46" t="s">
+      <c r="AB457" s="39"/>
+      <c r="AC457" s="46" t="s">
         <v>549</v>
       </c>
-      <c r="AC457" s="41" t="s">
+      <c r="AD457" s="41" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="458" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A458"/>
       <c r="B458" s="70" t="s">
         <v>85</v>
@@ -30440,14 +31338,15 @@
       <c r="AA458" s="40">
         <v>2012</v>
       </c>
-      <c r="AB458" s="46" t="s">
+      <c r="AB458" s="39"/>
+      <c r="AC458" s="46" t="s">
         <v>549</v>
       </c>
-      <c r="AC458" s="41" t="s">
+      <c r="AD458" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="459" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A459"/>
       <c r="B459" s="70" t="s">
         <v>85</v>
@@ -30505,19 +31404,20 @@
       <c r="AA459" s="40">
         <v>2012</v>
       </c>
-      <c r="AB459" s="46" t="s">
+      <c r="AB459" s="39"/>
+      <c r="AC459" s="46" t="s">
         <v>549</v>
       </c>
-      <c r="AC459" s="41" t="s">
+      <c r="AD459" s="41" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="460" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A460"/>
       <c r="B460" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C460" s="92" t="s">
+      <c r="C460" s="90" t="s">
         <v>17</v>
       </c>
       <c r="D460" s="60" t="s">
@@ -30570,52 +31470,58 @@
       <c r="AA460" s="66">
         <v>2012</v>
       </c>
-      <c r="AB460" s="75" t="s">
+      <c r="AB460" s="65"/>
+      <c r="AC460" s="75" t="s">
         <v>549</v>
       </c>
-      <c r="AC460" s="67" t="s">
+      <c r="AD460" s="67" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="567" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A567"/>
       <c r="B567" s="3"/>
       <c r="G567" s="3"/>
       <c r="K567" s="1"/>
       <c r="L567" s="1"/>
       <c r="X567" s="6"/>
-    </row>
-    <row r="568" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AB567"/>
+    </row>
+    <row r="568" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A568"/>
       <c r="B568" s="3"/>
       <c r="G568" s="3"/>
       <c r="K568" s="1"/>
       <c r="L568" s="1"/>
       <c r="X568" s="6"/>
-    </row>
-    <row r="569" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AB568"/>
+    </row>
+    <row r="569" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A569"/>
       <c r="B569" s="3"/>
       <c r="G569" s="3"/>
       <c r="K569" s="1"/>
       <c r="L569" s="1"/>
       <c r="X569" s="6"/>
-    </row>
-    <row r="570" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AB569"/>
+    </row>
+    <row r="570" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A570"/>
       <c r="B570" s="3"/>
       <c r="G570" s="3"/>
       <c r="K570" s="1"/>
       <c r="L570" s="1"/>
       <c r="X570" s="6"/>
-    </row>
-    <row r="571" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AB570"/>
+    </row>
+    <row r="571" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A571"/>
       <c r="B571" s="3"/>
       <c r="G571" s="3"/>
       <c r="K571" s="1"/>
       <c r="L571" s="1"/>
       <c r="X571" s="6"/>
+      <c r="AB571"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -30625,240 +31531,248 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="93.28515625" customWidth="1"/>
+    <col min="3" max="3" width="93.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="22" t="s">
         <v>516</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="91" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="92" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B4" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="92" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="92" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="92" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="92" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="92" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="92" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="92" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="19" t="s">
         <v>538</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="92" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="92" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="92" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="92" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="92" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="92" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="92" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
         <v>524</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="92" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B19" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="92" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="48" x14ac:dyDescent="0.2">
       <c r="B20" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="92" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B21" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="92" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="92" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="92" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C24" s="92" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" ht="64" x14ac:dyDescent="0.2">
       <c r="B25" s="19" t="s">
         <v>555</v>
       </c>
-      <c r="C25" s="94" t="s">
+      <c r="C25" s="92" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="64" x14ac:dyDescent="0.2">
       <c r="B26" s="19" t="s">
         <v>556</v>
       </c>
-      <c r="C26" s="94" t="s">
+      <c r="C26" s="92" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B27" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="92" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B28" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="C28" s="92" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B29" s="19" t="s">
         <v>518</v>
       </c>
-      <c r="C28" s="94" t="s">
+      <c r="C29" s="92" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="21" t="s">
+    <row r="30" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B30" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="94" t="s">
+      <c r="C30" s="92" t="s">
         <v>553</v>
       </c>
     </row>
